--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -637,7 +637,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.282, 22-06-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.287, 23-06-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -751,28 +751,36 @@
     <t>Continuous delivery pipeline</t>
   </si>
   <si>
-    <t>1. bouw van de software</t>
-  </si>
-  <si>
-    <t>2. kwaliteitscontroles</t>
-  </si>
-  <si>
-    <t>3. regressietests</t>
-  </si>
-  <si>
-    <t>4. performance tests</t>
-  </si>
-  <si>
-    <t>5. beveiligingstests</t>
-  </si>
-  <si>
-    <t>6. unit tests</t>
-  </si>
-  <si>
-    <t>7. installatie van de software</t>
-  </si>
-  <si>
-    <t>8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever</t>
+    <t xml:space="preserve">1. bouw van de software,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. kwaliteitscontroles,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. regressietests,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. performance tests,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. beveiligingstests,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. unit tests,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7. installatie van de software,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.
+</t>
   </si>
   <si>
     <t>M08</t>
@@ -829,31 +837,31 @@
     <t>Verplichte tools</t>
   </si>
   <si>
-    <t>1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties. Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.</t>
-  </si>
-  <si>
-    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.</t>
-  </si>
-  <si>
-    <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube.</t>
-  </si>
-  <si>
-    <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Releasemanager.</t>
-  </si>
-  <si>
-    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt).</t>
-  </si>
-  <si>
-    <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitsrapportage (HQ).</t>
-  </si>
-  <si>
-    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP.</t>
-  </si>
-  <si>
-    <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker.</t>
-  </si>
-  <si>
-    <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>
+    <t>1. 1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties. Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.</t>
+  </si>
+  <si>
+    <t>2. 2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.</t>
+  </si>
+  <si>
+    <t>3. 3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube.</t>
+  </si>
+  <si>
+    <t>4. 4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Releasemanager.</t>
+  </si>
+  <si>
+    <t>5. 5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt).</t>
+  </si>
+  <si>
+    <t>6. 6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitsrapportage (HQ).</t>
+  </si>
+  <si>
+    <t>7. 7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP.</t>
+  </si>
+  <si>
+    <t>8. 8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker.</t>
+  </si>
+  <si>
+    <t>9. 9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>
   </si>
   <si>
     <t>M17</t>
@@ -862,13 +870,13 @@
     <t>Snel beschikbare tools</t>
   </si>
   <si>
-    <t>1. Een tool voor het snel beschikbaar stellen en installeren van tools. Bij ICTU: Docker dashboard</t>
-  </si>
-  <si>
-    <t>2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie. Bij ICTU: MediaWiki</t>
-  </si>
-  <si>
-    <t>3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs. Bij ICTU: Wekan</t>
+    <t>1. 1. Een tool voor het snel beschikbaar stellen en installeren van tools. Bij ICTU: Docker dashboard</t>
+  </si>
+  <si>
+    <t>2. 2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie. Bij ICTU: MediaWiki</t>
+  </si>
+  <si>
+    <t>3. 3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs. Bij ICTU: Wekan</t>
   </si>
   <si>
     <t>M18</t>
@@ -1346,7 +1354,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -751,36 +751,28 @@
     <t>Continuous delivery pipeline</t>
   </si>
   <si>
-    <t xml:space="preserve">1. bouw van de software,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. kwaliteitscontroles,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. regressietests,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. performance tests,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5. beveiligingstests,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. unit tests,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7. installatie van de software,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.
-</t>
+    <t>1. bouw van de software</t>
+  </si>
+  <si>
+    <t>2. kwaliteitscontroles</t>
+  </si>
+  <si>
+    <t>3. regressietests</t>
+  </si>
+  <si>
+    <t>4. performance tests</t>
+  </si>
+  <si>
+    <t>5. beveiligingstests</t>
+  </si>
+  <si>
+    <t>6. unit tests</t>
+  </si>
+  <si>
+    <t>7. installatie van de software</t>
+  </si>
+  <si>
+    <t>8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.</t>
   </si>
   <si>
     <t>M08</t>
@@ -837,31 +829,31 @@
     <t>Verplichte tools</t>
   </si>
   <si>
-    <t>1. 1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties. Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.</t>
-  </si>
-  <si>
-    <t>2. 2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.</t>
-  </si>
-  <si>
-    <t>3. 3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube.</t>
-  </si>
-  <si>
-    <t>4. 4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Releasemanager.</t>
-  </si>
-  <si>
-    <t>5. 5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt).</t>
-  </si>
-  <si>
-    <t>6. 6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitsrapportage (HQ).</t>
-  </si>
-  <si>
-    <t>7. 7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP.</t>
-  </si>
-  <si>
-    <t>8. 8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker.</t>
-  </si>
-  <si>
-    <t>9. 9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>
+    <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.</t>
+  </si>
+  <si>
+    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.</t>
+  </si>
+  <si>
+    <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube.</t>
+  </si>
+  <si>
+    <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Releasemanager.</t>
+  </si>
+  <si>
+    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt).</t>
+  </si>
+  <si>
+    <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitsrapportage (HQ).</t>
+  </si>
+  <si>
+    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP.</t>
+  </si>
+  <si>
+    <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker.</t>
+  </si>
+  <si>
+    <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>
   </si>
   <si>
     <t>M17</t>
@@ -870,13 +862,13 @@
     <t>Snel beschikbare tools</t>
   </si>
   <si>
-    <t>1. 1. Een tool voor het snel beschikbaar stellen en installeren van tools. Bij ICTU: Docker dashboard</t>
-  </si>
-  <si>
-    <t>2. 2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie. Bij ICTU: MediaWiki</t>
-  </si>
-  <si>
-    <t>3. 3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs. Bij ICTU: Wekan</t>
+    <t>1. Een tool voor het snel beschikbaar stellen en installeren van tools. Bij ICTU: Docker dashboard</t>
+  </si>
+  <si>
+    <t>2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie. Bij ICTU: MediaWiki</t>
+  </si>
+  <si>
+    <t>3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs. Bij ICTU: Wekan</t>
   </si>
   <si>
     <t>M18</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -191,14 +191,15 @@
           <t xml:space="preserve">Continuous delivery pipeline (M07)
 Er is een geautomatiseerde continuous delivery pipeline die aantoonbaar correct werkt en ten minste de volgende activiteiten uitvoert:
 - bouw van de software,
+- unit tests,
+- regressietests,
 - kwaliteitscontroles,
-- regressietests,
-- performance tests,
-- beveiligingstests,
-- unit tests,
+- performancetests (*),
+- beveiligingstests (*),
 - installatie van de software,
 - oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.
-De projectenorganisatie voorziet in mensen en hulpmiddelen, zodat projecten deze pipeline kunnen toepassen. Projecten zijn verantwoordelijk voor de correcte werking van de pipeline.
+(*) Idealerwijs voert de geautomatiseerde continuous delivery pipeline ook performance tests en beveiligingstests uit. Vanwege de doorlooptijden van tests (met name van duurtesten) en licenties van testtools is dat niet altijd haalbaar. In dat geval vinden de performance tests en beveiligingstests periodiek en zo vaak mogelijk plaats, bij voorkeur dagelijks.
+De projectenorganisatie voorziet in mensen en hulpmiddelen, zodat projecten deze pipeline kunnen toepassen. Projecten zijn verantwoordelijk voor de correcte werking van de pipelin.
 Rationale
 Software incrementeel opleveren (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)) vereist dat de software frequent gebouwd, getest en opgeleverd kan worden. Om dit efficiënt en foutvrij te doen, dient het proces van bouwen, testen en opleveren geautomatiseerd te zijn; een continuous delivery pipeline faciliteert dit.
 ICTU
@@ -581,9 +582,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
-Projecten laten periodiek een beveiligingstest uitvoeren. De code wordt zowel geautomatiseerd, als handmatig onderzocht op veelvoorkomende kwetsbaarheden door een beveiligingsexpert van buiten het project. De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld wordt aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
-Rationale
-Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden. Doordat de projectenorganisatie deze expertise beschikbaar stelt, kunnen projecten daar snel en efficiënt gebruik van maken.
+Projecten laten periodiek een beveiligingstest uitvoeren. De code wordt zowel geautomatiseerd, als handmatig onderzocht op veelvoorkomende kwetsbaarheden door een beveiligingsexpert van buiten het project. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
+Rationale
+Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
 ICTU
 Software wordt minimaal bij iedere grote release of tenminste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
 Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
@@ -637,7 +638,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.287, 23-06-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.288, 12-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -754,19 +755,19 @@
     <t>1. bouw van de software</t>
   </si>
   <si>
-    <t>2. kwaliteitscontroles</t>
+    <t>2. unit tests</t>
   </si>
   <si>
     <t>3. regressietests</t>
   </si>
   <si>
-    <t>4. performance tests</t>
-  </si>
-  <si>
-    <t>5. beveiligingstests</t>
-  </si>
-  <si>
-    <t>6. unit tests</t>
+    <t>4. kwaliteitscontroles</t>
+  </si>
+  <si>
+    <t>5. performancetests (*)</t>
+  </si>
+  <si>
+    <t>6. beveiligingstests (*)</t>
   </si>
   <si>
     <t>7. installatie van de software</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -19,6 +19,19 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bij maatregelen die primair door een project moeten worden toegepast geeft Status aan in hoevere het project dat doet. Bij maatregelen die primair door de projectorganisatie (bij ICTU: ISR) moeten worden toegepast geeft de status aan in hoeverre de projectorganisatie dat doet, gezien vanuit het perspectief van het project.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B3" authorId="0">
       <text>
         <r>
@@ -554,8 +567,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Implementatie van wijzigingen aan de kwaliteitsaanpak en -normen (M24)
-Bij elke wijziging aan de kwaliteitsaanpak en/of -normen stelt de projectenorganisatie vast of de wijziging leidt tot een wijziging in de werkwijze van de projecten. Als dit het geval is, wijst de projectenorganisatie een sponsor van de wijziging aan die een implementatieplan voor de wijziging maakt en uitvoert. Het implementatieplan bevat ten minste:
+          <t xml:space="preserve">Implementatie van wijzigingen aan de kwaliteitsaanpak en kwaliteitsnormen (M24)
+Bij elke wijziging aan de kwaliteitsaanpak en/of kwaliteitsnormen stelt de projectenorganisatie vast of de wijziging leidt tot een wijziging in de werkwijze van de projecten. Als dit het geval is, wijst de projectenorganisatie een verantwoordelijke aan voor de implementatie van de wijziging; de verantwoordelijke stelt een implementatieplan op dat ten minste de volgende onderwerpen beschrijft:
 - het doel van de wijziging,
 - een beschrijving van de wijziging,
 - de sponsor van de wijziging,
@@ -602,8 +615,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Projecten expliciet afsluiten (M27)
-Na afronding van de realisatiefase worden projecten afgesloten. Alle documentatie, broncode, referentiedata en credentials die in de realisatiefase nodig waren of zijn opgeleverd, worden gearchiveerd en van werkstations van projectmedewerkers verwijderd.
+          <t xml:space="preserve">Projecten en projectfasen expliciet afsluiten (M27)
+Afsluiting van een projectfase gebeurt expliciet en gecontroleerd: alle producten, zoals documentatie, broncode, referentiedata en credentials, die in de af te sluiten fase nodig waren of zijn opgeleverd, worden gearchiveerd. Indien er geen volgende fase is voorzien of die nog een lange of onbekende tijd op zich zal laten wachten, dienen alle producten van de werkstations van de projectmedewerkers verwijderd te worden.
 Rationale
 Archiveren faciliteert het eventueel herstarten of overdragen van het project op een later tijdstip. Verwijderen neemt een onnodig risico op inbreuk op vertrouwelijkheid weg en vrijwaart projectmedewerkers en de projectenorganisatie van verdenking en aansprakelijkheid wanneer een incident optreedt.
 ICTU
@@ -638,7 +651,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.288, 12-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.293, 12-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -905,7 +918,7 @@
     <t>M24</t>
   </si>
   <si>
-    <t>Implementatie van wijzigingen aan de kwaliteitsaanpak en -normen</t>
+    <t>Implementatie van wijzigingen aan de kwaliteitsaanpak en kwaliteitsnormen</t>
   </si>
   <si>
     <t>M26</t>
@@ -917,7 +930,7 @@
     <t>M27</t>
   </si>
   <si>
-    <t>Projecten expliciet afsluiten</t>
+    <t>Projecten en projectfasen expliciet afsluiten</t>
   </si>
   <si>
     <t>M28</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -79,7 +79,7 @@
 - De beschrijving van niet-functionele eisen is gebaseerd op ISO-25010, BIR en SSD, en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
 - De beschrijving van functionele eisen bestaat uit een geprioriteerde backlog met epics en/of user stories. De beschrijving bevat in ieder geval eisen voor (ondersteuning van) beheerfuncties die door de beoogd beheerder gesteld worden en voor logging, inclusief de (globale) inhoud van te loggen business events (gebeurtenissen op procesniveau) en de daarvoor geldende bewaartermijnen;
 - De ontwerp- en architectuurdocumentatie bestaat uit een projectstartarchitectuur (PSA), een softwarearchitectuurdocument (SAD), een infrastructuurarchitectuur (IA), een globaal functioneel ontwerp (GFO) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
-- De testdocumentatie bestaat uit een master testplan, gemaakt op basis van een productrisicoanalyse (PRA). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
+- De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een productrisicoanalyse (PRA). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
 - Het informatiebeveiligingsplan is gebaseerd op een dreigingen- en kwetsbaarhedenanalyse (TVA, threat and vulnerability assessment) en bevat een maatregelenselectie informatiebeveiliging. De TVA wordt tijdens de voorfase opgesteld op basis van de resultaten van de BIA, de eventuele PIA en inhoud van de ontwerp- en architectuurdocumentatie. Een TVA levert een deel van een traceerbare onderbouwing voor de te treffen beveiligingsmaatregelen;
 - Het vrijgaveadvies bevat ten minste alle nog openstaande testbevindingen en geconstateerde beveiligingsbevindingen. Zie ook [M26: Periodieke beoordeling informatiebeveiliging](#periodieke-beoordeling-informatiebeveiliging-m26-) en [M16: Verplichte tools](#verplichte-tools-m16-). Indien er beveiligingsissues zijn, zijn deze voorzien van een beschreven voorziene impact.
 - De deploymentdocumentatie bevat informatie over de eisen die een applicatie stelt aan een omgeving en de stappen die nodig zijn om de applicatie in die omgeving veilig te installeren en configureren. De documentatie bevat daartoe onder meer aanwijzingen voor de HTTP-header en -request-configuratie van de webserver en voor het verwijderen van overbodige header-informatie zoals de 'Server'-header. Ook zijn er aanwijzingen voor veilige configuratie(s) van (externe) toegang tot de beheerinterface. De documentatie bevat daarnaast in ieder geval een beschrijving van de protocollen en services die de applicatie aanbiedt, de protocollen, services en accounts die het product gebruikt en de protocollen, services en accounts die de applicatie gebruikt voor beheer;
@@ -104,7 +104,7 @@
 Rationale
 Het zo snel mogelijk en continu voldoen aan de kwaliteitsnormen beperkt toekomstige hersteltijd. Het dwingt tevens een structurele kwaliteitscontrole af.
 ICTU
-Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem' (HQ). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
+Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem' (HQ). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
 </t>
         </r>
       </text>
@@ -143,7 +143,7 @@
 Rationale
 Handmatig uitgevoerde regressietests zijn arbeidsintensief, foutgevoelig en afhankelijk van de aanwezigheid van specifieke medewerkers. Gelet op de vrijwel continue metingen op en leveringen van de programmatuur, zijn de nadelen van handmatige regressietests niet acceptabel. Door ze te automatiseren zijn ze herhaalbaar en kunnen ze onderdeel uitmaken van de continuous delivery pipeline (zie [M07: Continuous delivery pipeline](#continuous-delivery-pipeline-m07-)).
 ICTU
-ICTU hanteert een norm voor de dekking van regressietests.
+ICTU stimuleert het gebruik van geautomatiseerde regressietests en hanteert een norm voor de dekking van regressietests.
 </t>
         </r>
       </text>
@@ -160,9 +160,9 @@
           <t xml:space="preserve">Iteratief en incrementeel ontwikkelproces (M05)
 Projecten werken iteratief en incrementeel; dit betekent dat een project in korte iteraties werkt, waarbij elke iteratie een werkende versie van de software wordt opgeleverd die extra waarde oplevert voor de opdrachtgever. Behalve de software levert het project iedere iteratie telkens ook alle andere producten (Zie [M16: Verplichte tools](#verplichte-tools-m16-)) bijgewerkt op. Elke iteratie worden verwachtingen en werkelijke resultaten vergeleken en de werkwijze aangescherpt op basis van inzichten en bevindingen. Dit leidt tot een zich continu verbeterend proces.
 Rationale
-De incrementele oplevering levert (vrijwel) iedere iteratie toegevoegde waarde en stelt opdrachtgevers, gebruikers en anderen in staat om gaandeweg ervaring op te doen en bij te sturen. Verder dwingt het vroegtijdige tests en kwaliteitscontroles af, die daarmee verankerd worden in het ontwikkel- en onderhoudsproces. Door naast de software telkens ook alle andere producten bij te werken en op te leveren, wordt bereikt dat het product als geheel consistent blijft en dat er geen achterstallig onderhoud ontstaat.
-ICTU
-ICTU gebruikt hiervoor Scrum, een raamwerk voor productontwikkeling. ICTU propageert de kernwaarden van Scrum en vereist de volgende Scrum-aspecten:
+De incrementele oplevering levert vrijwel iedere iteratie toegevoegde waarde en stelt opdrachtgevers, gebruikers en anderen in staat om gaandeweg ervaring op te doen en bij te sturen. Verder dwingt het vroegtijdige tests en kwaliteitscontroles af, die daarmee verankerd worden in het ontwikkel- en onderhoudsproces. Door naast de software telkens ook alle andere producten bij te werken en op te leveren, wordt bereikt dat het product als geheel consistent blijft en dat er geen achterstallig onderhoud ontstaat.
+ICTU
+ICTU gebruikt hiervoor Scrum, een raamwerk voor agile productontwikkeling. ICTU propageert de kernwaarden van Scrum en vereist de volgende onderdelen van Scrum:
 - Scrum team bestaand uit product owner, ontwikkelteam en Scrum master,
 - Proces: daily scrum, sprints, sprint planning, sprint review, sprint refinement,
 - Definition of Done,
@@ -253,16 +253,16 @@
 Projecten implementeren nieuwe versies van kwaliteitsaanpak en kwaliteitsnormen binnen de door de projectenorganisatie gestelde termijn (zie [M12: Publicatie kwaliteitsaanpak en -normen](#publicatie-kwaliteitsaanpak-en-normen-m12-) voor het tot stand komen van de gestelde termijnen). De projectverantwoordelijke is verantwoordelijk voor de implementatie.
 De projectverantwoordelijke organiseert periodiek een self-assessment van het project tegen de kwaliteitsaanpak ([M28: Self-assessment](#self-assessment-m28-)), identificeert de belangrijkste verschillen tussen kwaliteitsaanpak en werkwijze in het project en rapporteert hierover aan de projectenorganisatie. In overleg tussen projectverantwoordelijke en projectenorganisatie wordt besloten of het verschil tijdelijk of permanent wordt geaccepteerd. In het geval van tijdelijke acceptatie stelt de projectverantwoordelijke een verbeteractie op. Merk op dat de verbeteractie ook kan bestaan uit het opstellen van een verbetervoorstel voor de kwaliteitsaanpak.
 Voor de belangrijkste verschillen beschrijft de projectverantwoordelijke:
-- Het geconstateerde verschil,
-- Reden voor het verschil,
-- In geval van acceptatie: waarom het verschil geaccepteerd wordt,
-- In geval van verbeteractie: planning om het verschil weg te werken.
+- het geconstateerde verschil,
+- reden voor het verschil,
+- in geval van acceptatie: waarom het verschil geaccepteerd wordt,
+- in geval van verbeteractie: planning om het verschil weg te werken.
 Rationale
 De implementatie van een nieuwe versie van de kwaliteitsaanpak kost tijd. De introductie en aanpassing van normen en tools, kunnen verschillende consequenties hebben: bestaande broncode blijkt niet meer volledig te voldoen aan de normen, een nieuwe tool moet in de ontwikkelstraat worden toegevoegd, enzovoort.
 Anderzijds is het voor de uniformiteit van kwaliteitsmeting en rapportage en de doorontwikkeling van de kwaliteitsaanpak van belang de implementatieperiode zo kort mogelijk en voorspelbaar te houden. Daarom stemt de projectenorganisatie met de projecten een implementatiemoment en implementatieperiode af.
 Omdat implementatie van maatregelen in een project tijd kost is de self-assessment ([M28: Self-assessment](#self-assessment-m28-)) gericht op het in kaart brengen van de belangrijkste verschillen tussen kwaliteitsaanpak en de in het project toegepaste werkwijze en niet op het uitputtend inventariseren van alle verschillen.
 ICTU
-Bij ICTU heeft de software delivery manager de rol van projectverantwoordelijke, zoals in deze maatregel beschreven. De software delivery manager stemt periodiek de self-assessmentresultaten af met het afdelingshoofd ISR.
+Bij ICTU is de software delivery manager verantwoordelijk voor de implementatie van de kwaliteitsaanpak. De software delivery manager stemt periodiek de self-assessmentresultaten af met de projectleider en het afdelingshoofd ISR.
 </t>
         </r>
       </text>
@@ -287,9 +287,9 @@
 - kwaliteit en architectuur - bespreking van kwaliteit (bijvoorbeeld naar aanleiding van de self-assessment), architectuur (voor borging van inhoudelijke koers), eventuele afwijkingen en benodigde acties,
 - risico's en aandachtspunten.
 Rationale
-Het doel van het periodiek projectoverleg is alle directe betrokkenen, breder dan het realiserende team, op hetzelfde informatieniveau te brengen en te houden. Directe betrokkenen zijn alle medewerkers die geen onderdeel uitmaken van het realiserende team, maar wel eindverantwoordelijk of uitvoerend verantwoordelijk zijn voor het projectsucces.
-ICTU
-Bij periodiek projectoverleg zijn de software delivery manager, de kwaliteitsmanager en de scrum master vereist.
+Het doel van het periodiek projectoverleg is alle directe betrokkenen, breder dan het realiserende team, op hetzelfde informatieniveau te brengen en te houden. Directe betrokkenen zijn alle medewerkers die geen onderdeel uitmaken van het realiserende team, maar wel verantwoordelijkheid dragen voor het projectsucces.
+ICTU
+Bij periodiek projectoverleg zijn de software delivery manager, de kwaliteitsmanager en de Scrum master vereist.
 </t>
         </r>
       </text>
@@ -428,14 +428,14 @@
 Projecten hebben een redelijke vrijheid bij het kiezen van tools, maar het gebruik van een aantal is verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van deze kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren. Daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af.
 ICTU
 ICTU gebruikt hiervoor de volgende tools:
-1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.
-2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.
-3. SonarQube.
-4. Releasemanager.
-5. Reporting (Birt).
-6. Kwaliteitsrapportage (HQ).
-7. OpenVAS en OWASP ZAP.
-8. OWASP Dependency Checker.
+1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
+2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,
+3. SonarQube,
+4. Release Manager,
+5. Reporting (Birt),
+6. Kwaliteitssysteem (HQ),
+7. OpenVAS en OWASP ZAP,
+8. OWASP Dependency Checker,
 9. Checkmarx.
 </t>
         </r>
@@ -595,11 +595,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
-Projecten laten periodiek een beveiligingstest uitvoeren. De code wordt zowel geautomatiseerd, als handmatig onderzocht op veelvoorkomende kwetsbaarheden door een beveiligingsexpert van buiten het project. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
+Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de Baseline Informatiebeveiliging Rijksdienst (BIR), bieden een basis voor de beoordeling.
+De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld kan worden aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
 Rationale
 Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
 ICTU
-Software wordt minimaal bij iedere grote release of tenminste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
+Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
 Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
 De beveiligingstesten vinden plaats in aanvulling op de door tools uitgevoerde continue beveiligingsanalyse van de gerealiseerde software, zie [M16: Verplichte tools](#verplichte-tools-m16-). Bevindingen uit zowel een beveiligingstest als de continue analyse worden in Jira als issue - gemarkeerd als beveiligingsbugreport - vastgelegd op de backlog van het project.
 </t>
@@ -635,9 +636,9 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Self-assessment (M28)
-De projectverantwoordelijke doet een periodieke self-assessment ten aanzien van de Kwaliteitsaanpak. Deze assessment geeft inzicht in de huidige status van het project en kan aanleiding geven tot het nemen van maatregelen binnen het project.
-Rationale
-Net als bij technische producten is het periodiek meten van de kwaliteit van belang om in controle te blijven. Aangezien veel maatregelen uit de Kwaliteitsaanpak zich niet geautomatiseerd laten meten, is menselijke inbreng nodig.
+De projectverantwoordelijke doet een periodieke self-assessment ten aanzien van de kwaliteitsaanpak. Deze assessment geeft inzicht in de huidige status van het project en kan aanleiding geven tot het nemen van maatregelen binnen het project.
+Rationale
+Net als bij technische producten is het periodiek meten van de kwaliteit van belang om in controle te blijven. Aangezien veel maatregelen uit de kwaliteitsaanpak zich niet geautomatiseerd laten meten, is menselijke inbreng nodig.
 ICTU
 De projectleider is verantwoordelijk voor het doen van de self-assessment, die in de regel door de software delivery manager wordt uitgevoerd. De self-assessment is een intern product, maar kan gedeeld worden met opdrachtgevers en andere betrokkenen. Voor het doen van de self-assessment stelt ICTU een ondersteunend formulier beschikbaar.
 </t>
@@ -651,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.293, 12-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.294, 23-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -843,28 +844,28 @@
     <t>Verplichte tools</t>
   </si>
   <si>
-    <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints.</t>
-  </si>
-  <si>
-    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten.</t>
-  </si>
-  <si>
-    <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube.</t>
-  </si>
-  <si>
-    <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Releasemanager.</t>
-  </si>
-  <si>
-    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt).</t>
-  </si>
-  <si>
-    <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitsrapportage (HQ).</t>
-  </si>
-  <si>
-    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP.</t>
-  </si>
-  <si>
-    <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker.</t>
+    <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,</t>
+  </si>
+  <si>
+    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,</t>
+  </si>
+  <si>
+    <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube,</t>
+  </si>
+  <si>
+    <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Release Manager,</t>
+  </si>
+  <si>
+    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt),</t>
+  </si>
+  <si>
+    <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitssysteem (HQ),</t>
+  </si>
+  <si>
+    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP,</t>
+  </si>
+  <si>
+    <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker,</t>
   </si>
   <si>
     <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.294, 23-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.295, 23-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.295, 23-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.296, 23-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -32,7 +32,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0">
+    <comment ref="B4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +89,27 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="0">
+    <comment ref="B24" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Gebruik van ISO-25010 (M13)
+De standaard ISO/IEC 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
+Voor specificatie en documentatie van vereiste en gewenste kwaliteitseigenschappen, de niet-functionele eisen, maken projecten gebruik van de terminologie uit ISO-25010. Projecten gebruiken ISO-25010 om te controleren of alle relevante kwaliteitseigenschappen van het op te leveren eindproduct worden meegenomen in de ontwikkeling en/of onderhoud van het product.
+Rationale
+De standaard ISO-25010 biedt een model voor productkwaliteit. De standaard biedt geen concrete maatregelen, maar biedt wel een begrippenkader en dekt het volledige spectrum van mogelijk relevante kwaliteitseigenschappen af. Het gebruiken van een standaard voor specificatie van kwaliteit voorkomt miscommunicatie over kwaliteitseigenschappen en de breedte van de standaard zorgt ervoor dat alle relevante aspecten aan bod komen.
+ICTU
+ICTU gebruikt ISO-25010 voor documentatie en specificatie van productkwaliteit.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -148,7 +168,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
+Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de Baseline Informatiebeveiliging Rijksdienst (BIR), bieden een basis voor de beoordeling.
+De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld kan worden aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
+Rationale
+Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
+ICTU
+Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
+Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
+De beveiligingstesten vinden plaats in aanvulling op de door tools uitgevoerde continue beveiligingsanalyse van de gerealiseerde software, zie [M16: Verplichte tools](#verplichte-tools-m16-). Bevindingen uit zowel een beveiligingstest als de continue analyse worden in Jira als issue - gemarkeerd als beveiligingsbugreport - vastgelegd op de backlog van het project.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B38" authorId="0">
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -267,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B39" authorId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -294,7 +336,45 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
+    <comment ref="B44" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Projecten en projectfasen expliciet afsluiten (M27)
+Afsluiting van een projectfase gebeurt expliciet en gecontroleerd: alle producten, zoals documentatie, broncode, referentiedata en credentials, die in de af te sluiten fase nodig waren of zijn opgeleverd, worden gearchiveerd. Indien er geen volgende fase is voorzien of die nog een lange of onbekende tijd op zich zal laten wachten, dienen alle producten van de werkstations van de projectmedewerkers verwijderd te worden.
+Rationale
+Archiveren faciliteert het eventueel herstarten of overdragen van het project op een later tijdstip. Verwijderen neemt een onnodig risico op inbreuk op vertrouwelijkheid weg en vrijwaart projectmedewerkers en de projectenorganisatie van verdenking en aansprakelijkheid wanneer een incident optreedt.
+ICTU
+De software delivery manager is verantwoordelijk voor het archiveren. De software delivery manager geeft het projectteam opdracht de archivering voor te bereiden en geeft het technisch beheerteam de opdracht de archivering uit te voeren.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B45" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Self-assessment (M28)
+De projectverantwoordelijke doet een periodieke self-assessment ten aanzien van de kwaliteitsaanpak. Deze assessment geeft inzicht in de huidige status van het project en kan aanleiding geven tot het nemen van maatregelen binnen het project.
+Rationale
+Net als bij technische producten is het periodiek meten van de kwaliteit van belang om in controle te blijven. Aangezien veel maatregelen uit de kwaliteitsaanpak zich niet geautomatiseerd laten meten, is menselijke inbreng nodig.
+ICTU
+De projectleider is verantwoordelijk voor het doen van de self-assessment, die in de regel door de software delivery manager wordt uitgevoerd. De self-assessment is een intern product, maar kan gedeeld worden met opdrachtgevers en andere betrokkenen. Voor het doen van de self-assessment stelt ICTU een ondersteunend formulier beschikbaar.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,240 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Publicatie kwaliteitsaanpak en -normen (M12)
-De projectenorganisatie publiceert periodiek, op een vaste, bekende locatie, een nieuwe versie van de kwaliteitsaanpak en/of de kwaliteitsnormen.
-Rationale
-Medewerkers moeten te allen tijde de actuele kwaliteitsaanpak en -normen kunnen raadplegen. Welke versie actueel is en wanneer een nieuwe versie actueel wordt, is essentiële informatie voor de planning van werkzaamheden binnen de projecten en binnen de afdeling als geheel.
-ICTU
-De kwaliteitsaanpak is te vinden op de afdelingsbrede wiki. Publicatie van een nieuwe versie wordt aangekondigd via een e-mail naar belanghebbenden en, indien relevant, 'de ICTU Software Realisatie-zeepkist'.
-Bij ICTU zijn de kwaliteitsnormen (op dit moment) te vinden in elke kwaliteitsrapportage, in het 'helpmenu'.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Gebruik van ISO-25010 (M13)
-De standaard ISO/IEC 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
-Voor specificatie en documentatie van vereiste en gewenste kwaliteitseigenschappen, de niet-functionele eisen, maken projecten gebruik van de terminologie uit ISO-25010. Projecten gebruiken ISO-25010 om te controleren of alle relevante kwaliteitseigenschappen van het op te leveren eindproduct worden meegenomen in de ontwikkeling en/of onderhoud van het product.
-Rationale
-De standaard ISO-25010 biedt een model voor productkwaliteit. De standaard biedt geen concrete maatregelen, maar biedt wel een begrippenkader en dekt het volledige spectrum van mogelijk relevante kwaliteitseigenschappen af. Het gebruiken van een standaard voor specificatie van kwaliteit voorkomt miscommunicatie over kwaliteitseigenschappen en de breedte van de standaard zorgt ervoor dat alle relevante aspecten aan bod komen.
-ICTU
-ICTU gebruikt ISO-25010 voor documentatie en specificatie van productkwaliteit.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Projecten splitsen in een voorbereidingsfase en een realisatiefase (M14)
-Projecten hebben een voorbereidingsfase, voorafgaand aan de realisatiefase. Voor het uitvoeren van de voorbereidingsfase zijn vertegenwoordigers van de opdrachtgever en beoogde beheerpartij beschikbaar - bij voorkeur dezelfde als betrokken zullen zijn in de realisatiefase - die meewerken aan het realiseren van een deel van de op te leveren producten (zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-)). Tijdens de realisatiefase vindt de bouw en het onderhoud van de software en het finaliseren van documentatie plaats.
-Rationale
-Het doel van de voorbereidingsfase is ten eerste om uitgangspunten, risico's en randvoorwaarden voor verdere projectuitvoering te bepalen en ten tweede om te zorgen dat aan de randvoorwaarden wordt voldaan en voor zoveel mogelijk projectspecifieke risico's maatregelen genomen zijn. Het doel van de realisatiefase is het daadwerkelijk bouwen en onderhouden van de software. Een expliciete splitsing zorgt ervoor dat projecten doordacht van start gaan.
-Al tijdens de voorfase moeten keuzes gemaakt worden die invloed hebben op de beveiligingsmaatregelen. Aanwezigheid van een voldoende gemandateerde vertegenwoordiger van de opdrachtgever zorgt dat deze keuzes gemaakt en bekrachtigd kunnen worden. De keuzes komen onder meer tot uitdrukking in de ontwerp- en architectuurdocumentatie, zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-). De infrastructuur gerelateerde documentatie wordt opgesteld door de beoogd beheerder en dekt een deel van de totale beveiligingsmaatregelen af. Aanwezigheid van de beoogd beheerder in de voorfase zorgt dat dekking van dit deel van de beveiligingsmaatregelen geborgd blijft gedurende de realisatie en exploitatie.
-ICTU
-Bij ICTU heet de voorbereidingsfase van softwarerealisatieprojecten de 'voorfase'. In de realisatiefase wordt het Scrum team aangestuurd door een product owner van de opdrachtgever. Bij aanvang van de voorfase is deze beoogde product owner bekend en hij/zij werkt ook mee in de voorfase.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Open source tools (M15)
-Bij de selectie van tools ter ondersteuning van de projectuitvoering  geeft de projectenorganisatie voorkeur aan open source tools.
-Rationale
-Conform de rationale uit NORA voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
-ICTU
-Tools die ICTU ontwikkelt ter ondersteuning van softwarerealisatieprojecten, worden bij voorkeur als open source beschikbaar gesteld.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B45" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Verplichte tools (M16)
-De projectenorganisatie stelt het gebruik van de volgende tools voor alle projecten verplicht:
-1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties.
-2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt.
-3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt.
-4. Een tool dat het releasen van software ondersteunt.
-5. Een tool dat het maken van testrapportages ondersteunt.
-6. Een tool dat het maken van kwaliteitsrapportages ondersteunt.
-7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden.
-8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden.
-9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies.
-Rationale
-Projecten hebben een redelijke vrijheid bij het kiezen van tools, maar het gebruik van een aantal is verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van deze kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren. Daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af.
-ICTU
-ICTU gebruikt hiervoor de volgende tools:
-1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
-2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,
-3. SonarQube,
-4. Release Manager,
-5. Reporting (Birt),
-6. Kwaliteitssysteem (HQ),
-7. OpenVAS en OWASP ZAP,
-8. OWASP Dependency Checker,
-9. Checkmarx.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Snel beschikbare tools (M17)
-De projectenorganisatie zorgt dat bij start en uitvoering een aantal tools snel beschikbaar is. Hieronder vallen alle verplichte tools, aangevuld met de volgende tools:
-1. Een tool voor het snel beschikbaar stellen en installeren van tools.
-2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie.
-3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs.
-Rationale
-Snelle beschikbaarheid van tools betekent dat projecten snel kunnen beginnen. De niet-verplichte tools geven daarnaast de voorkeur van de projectenorganisatie weer.
-ICTU
-ICTU gebruikt hiervoor de volgende tools:
-1. Docker dashboard
-2. MediaWiki
-3. Wekan
-De tools zijn beschikbaar via een eigen cloud (vergelijkbaar met een 'app store'), binnen een werkdag na aanvraag.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B59" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Ondersteuning verplichte tools (M18)
-De projectenorganisatie zorgt voor technische en functionele ondersteuning aan projecten bij het gebruik van alle verplichte tools.
-Rationale
-De keuze om het gebruik van een aantal tools verplicht te stellen ([M16: Verplichte tools](#verplichte-tools-m16-)) volgt uit de belangrijke rol die die tools spelen in de ontwikkelstraat en in het kwaliteitssysteem. Met de verplichting komt ook een verantwoordelijkheid: om projecten in staat te stellen snel en effectief met deze tools te werken, moeten die projecten ondersteund worden. Uiteraard staat het de projectenorganisatie vrij ook niet-verplichte tools te ondersteunen.
-De verplicht gestelde tools zijn beperkt in aantal, bewezen en gangbaar; veel medewerkers zullen deze tools al kennen.
-ICTU
-ICTU zorgt voor ondersteuning van de bij [M16: Verplichte tools](#verplichte-tools-m16-) verplicht gestelde tools. Een team van specialisten met kennis, ervaring en capaciteit is beschikbaar voor ondersteuning aan projecten.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B60" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Afgeschermde digitale omgeving (M19)
-De projectenorganisatie geeft de projecten de beschikking over eigen, afgeschermde digitale omgevingen, waarbinnen ze de door het project ontwikkelde software en tools kunnen installeren.
-Rationale
-Door het bieden van een afgeschermde digitale omgeving zijn de afhankelijkheden en invloeden tussen projecten minimaal en worden beveiligingsrisico's verkleind.
-ICTU
-ICTU ondersteunt dit met Docker en/of virtuele machines (VM) en een VLAN per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B61" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Kwaliteit van medewerkers (M21)
-Bij de inzet van medewerkers gaat kwaliteit boven andere aspecten, zoals beschikbaarheid, prijs en doorlooptijd. Dit is een organisatiebrede verantwoordelijkheid.
-Rationale
-Goede kwaliteit van producten ontstaat primair door het werk van mensen; standaardisatie, kwaliteitsnormen en monitoring zijn hulpmiddelen. De kans dat kwalitatief goede medewerkers ook goede producten maken, is groter dan bij minder goede medewerkers.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B62" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Betrokkenheid bij inzet (M22)
-De projectverantwoordelijke betrekt de projectenorganisatie bij het inzetten van nieuwe medewerkers op de projecten.
-Rationale
-Medewerkers moeten zowel een goede match hebben met het project en de projectspecifieke behoeften aan kennis en vaardigheden als een goede match met de projectenorganisatie als geheel. Van medewerkers wordt namelijk verwacht dat ze zowel bijdragen aan de projectdoelstellingen als aan de projectoverstijgende doelen van de kwaliteitsaanpak.
-ICTU
-Bij het inzetten van medewerkers zijn één of meer ICTU-medewerkers betrokken die ruime ervaring hebben met de ICTU-werkwijze en -kwaliteitsaanpak.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B63" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Warme kennisoverdracht (M23)
-De projectverantwoordelijke zorgt ervoor dat bij nieuwe projecten wordt gestart met ten minste twee projectleden die bekend zijn met de kwaliteitsaanpak.
-Rationale
-Het inzetten van teamleden die bekend zijn met de kwaliteitsaanpak zorgt voor een soepeler start van een nieuw project omdat zij bekend zijn met de inhoud van de kwaliteitsaanpak, zoals kwaliteitsnormen en tools, en omdat zij al doende nieuwe teamleden bekend kunnen maken met de kwaliteitsaanpak.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -585,24 +432,124 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
-Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de Baseline Informatiebeveiliging Rijksdienst (BIR), bieden een basis voor de beoordeling.
-De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld kan worden aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
-Rationale
-Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
-ICTU
-Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
-Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
-De beveiligingstesten vinden plaats in aanvulling op de door tools uitgevoerde continue beveiligingsanalyse van de gerealiseerde software, zie [M16: Verplichte tools](#verplichte-tools-m16-). Bevindingen uit zowel een beveiligingstest als de continue analyse worden in Jira als issue - gemarkeerd als beveiligingsbugreport - vastgelegd op de backlog van het project.
+    <comment ref="B49" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Publicatie kwaliteitsaanpak en -normen (M12)
+De projectenorganisatie publiceert periodiek, op een vaste, bekende locatie, een nieuwe versie van de kwaliteitsaanpak en/of de kwaliteitsnormen.
+Rationale
+Medewerkers moeten te allen tijde de actuele kwaliteitsaanpak en -normen kunnen raadplegen. Welke versie actueel is en wanneer een nieuwe versie actueel wordt, is essentiële informatie voor de planning van werkzaamheden binnen de projecten en binnen de afdeling als geheel.
+ICTU
+De kwaliteitsaanpak is te vinden op de afdelingsbrede wiki. Publicatie van een nieuwe versie wordt aangekondigd via een e-mail naar belanghebbenden en, indien relevant, 'de ICTU Software Realisatie-zeepkist'.
+Bij ICTU zijn de kwaliteitsnormen (op dit moment) te vinden in elke kwaliteitsrapportage, in het 'helpmenu'.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B50" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Projecten splitsen in een voorbereidingsfase en een realisatiefase (M14)
+Projecten hebben een voorbereidingsfase, voorafgaand aan de realisatiefase. Voor het uitvoeren van de voorbereidingsfase zijn vertegenwoordigers van de opdrachtgever en beoogde beheerpartij beschikbaar - bij voorkeur dezelfde als betrokken zullen zijn in de realisatiefase - die meewerken aan het realiseren van een deel van de op te leveren producten (zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-)). Tijdens de realisatiefase vindt de bouw en het onderhoud van de software en het finaliseren van documentatie plaats.
+Rationale
+Het doel van de voorbereidingsfase is ten eerste om uitgangspunten, risico's en randvoorwaarden voor verdere projectuitvoering te bepalen en ten tweede om te zorgen dat aan de randvoorwaarden wordt voldaan en voor zoveel mogelijk projectspecifieke risico's maatregelen genomen zijn. Het doel van de realisatiefase is het daadwerkelijk bouwen en onderhouden van de software. Een expliciete splitsing zorgt ervoor dat projecten doordacht van start gaan.
+Al tijdens de voorfase moeten keuzes gemaakt worden die invloed hebben op de beveiligingsmaatregelen. Aanwezigheid van een voldoende gemandateerde vertegenwoordiger van de opdrachtgever zorgt dat deze keuzes gemaakt en bekrachtigd kunnen worden. De keuzes komen onder meer tot uitdrukking in de ontwerp- en architectuurdocumentatie, zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-). De infrastructuur gerelateerde documentatie wordt opgesteld door de beoogd beheerder en dekt een deel van de totale beveiligingsmaatregelen af. Aanwezigheid van de beoogd beheerder in de voorfase zorgt dat dekking van dit deel van de beveiligingsmaatregelen geborgd blijft gedurende de realisatie en exploitatie.
+ICTU
+Bij ICTU heet de voorbereidingsfase van softwarerealisatieprojecten de 'voorfase'. In de realisatiefase wordt het Scrum team aangestuurd door een product owner van de opdrachtgever. Bij aanvang van de voorfase is deze beoogde product owner bekend en hij/zij werkt ook mee in de voorfase.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Open source tools (M15)
+Bij de selectie van tools ter ondersteuning van de projectuitvoering  geeft de projectenorganisatie voorkeur aan open source tools.
+Rationale
+Conform de rationale uit NORA voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
+ICTU
+Tools die ICTU ontwikkelt ter ondersteuning van softwarerealisatieprojecten, worden bij voorkeur als open source beschikbaar gesteld.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Verplichte tools (M16)
+De projectenorganisatie stelt het gebruik van de volgende tools voor alle projecten verplicht:
+1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties.
+2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt.
+3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt.
+4. Een tool dat het releasen van software ondersteunt.
+5. Een tool dat het maken van testrapportages ondersteunt.
+6. Een tool dat het maken van kwaliteitsrapportages ondersteunt.
+7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden.
+8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden.
+9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies.
+Rationale
+Projecten hebben een redelijke vrijheid bij het kiezen van tools, maar het gebruik van een aantal is verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van deze kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren. Daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af.
+ICTU
+ICTU gebruikt hiervoor de volgende tools:
+1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
+2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,
+3. SonarQube,
+4. Release Manager,
+5. Reporting (Birt),
+6. Kwaliteitssysteem (HQ),
+7. OpenVAS en OWASP ZAP,
+8. OWASP Dependency Checker,
+9. Checkmarx.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B62" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Snel beschikbare tools (M17)
+De projectenorganisatie zorgt dat bij start en uitvoering een aantal tools snel beschikbaar is. Hieronder vallen alle verplichte tools, aangevuld met de volgende tools:
+1. Een tool voor het snel beschikbaar stellen en installeren van tools.
+2. Een tool voor de vastlegging van vluchtige, niet op te leveren projectinformatie.
+3. Een tool voor ondersteuning van actie- en besluitenlijsten en risicologs.
+Rationale
+Snelle beschikbaarheid van tools betekent dat projecten snel kunnen beginnen. De niet-verplichte tools geven daarnaast de voorkeur van de projectenorganisatie weer.
+ICTU
+ICTU gebruikt hiervoor de volgende tools:
+1. Docker dashboard
+2. MediaWiki
+3. Wekan
+De tools zijn beschikbaar via een eigen cloud (vergelijkbaar met een 'app store'), binnen een werkdag na aanvraag.
 </t>
         </r>
       </text>
@@ -616,13 +563,13 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Projecten en projectfasen expliciet afsluiten (M27)
-Afsluiting van een projectfase gebeurt expliciet en gecontroleerd: alle producten, zoals documentatie, broncode, referentiedata en credentials, die in de af te sluiten fase nodig waren of zijn opgeleverd, worden gearchiveerd. Indien er geen volgende fase is voorzien of die nog een lange of onbekende tijd op zich zal laten wachten, dienen alle producten van de werkstations van de projectmedewerkers verwijderd te worden.
-Rationale
-Archiveren faciliteert het eventueel herstarten of overdragen van het project op een later tijdstip. Verwijderen neemt een onnodig risico op inbreuk op vertrouwelijkheid weg en vrijwaart projectmedewerkers en de projectenorganisatie van verdenking en aansprakelijkheid wanneer een incident optreedt.
-ICTU
-De software delivery manager is verantwoordelijk voor het archiveren. De software delivery manager geeft het projectteam opdracht de archivering voor te bereiden en geeft het technisch beheerteam de opdracht de archivering uit te voeren.
-</t>
+          <t>Ondersteuning verplichte tools (M18)
+De projectenorganisatie zorgt voor technische en functionele ondersteuning aan projecten bij het gebruik van alle verplichte tools.
+Rationale
+De keuze om het gebruik van een aantal tools verplicht te stellen ([M16: Verplichte tools](#verplichte-tools-m16-)) volgt uit de belangrijke rol die die tools spelen in de ontwikkelstraat en in het kwaliteitssysteem. Met de verplichting komt ook een verantwoordelijkheid: om projecten in staat te stellen snel en effectief met deze tools te werken, moeten die projecten ondersteund worden. Uiteraard staat het de projectenorganisatie vrij ook niet-verplichte tools te ondersteunen.
+De verplicht gestelde tools zijn beperkt in aantal, bewezen en gangbaar; veel medewerkers zullen deze tools al kennen.
+ICTU
+ICTU zorgt voor ondersteuning van de bij [M16: Verplichte tools](#verplichte-tools-m16-) verplicht gestelde tools. Een team van specialisten met kennis, ervaring en capaciteit is beschikbaar voor ondersteuning aan projecten.</t>
         </r>
       </text>
     </comment>
@@ -635,12 +582,65 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Self-assessment (M28)
-De projectverantwoordelijke doet een periodieke self-assessment ten aanzien van de kwaliteitsaanpak. Deze assessment geeft inzicht in de huidige status van het project en kan aanleiding geven tot het nemen van maatregelen binnen het project.
-Rationale
-Net als bij technische producten is het periodiek meten van de kwaliteit van belang om in controle te blijven. Aangezien veel maatregelen uit de kwaliteitsaanpak zich niet geautomatiseerd laten meten, is menselijke inbreng nodig.
-ICTU
-De projectleider is verantwoordelijk voor het doen van de self-assessment, die in de regel door de software delivery manager wordt uitgevoerd. De self-assessment is een intern product, maar kan gedeeld worden met opdrachtgevers en andere betrokkenen. Voor het doen van de self-assessment stelt ICTU een ondersteunend formulier beschikbaar.
+          <t xml:space="preserve">Afgeschermde digitale omgeving (M19)
+De projectenorganisatie geeft de projecten de beschikking over eigen, afgeschermde digitale omgevingen, waarbinnen ze de door het project ontwikkelde software en tools kunnen installeren.
+Rationale
+Door het bieden van een afgeschermde digitale omgeving zijn de afhankelijkheden en invloeden tussen projecten minimaal en worden beveiligingsrisico's verkleind.
+ICTU
+ICTU ondersteunt dit met Docker en/of virtuele machines (VM) en een VLAN per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Kwaliteit van medewerkers (M21)
+Bij de inzet van medewerkers gaat kwaliteit boven andere aspecten, zoals beschikbaarheid, prijs en doorlooptijd. Dit is een organisatiebrede verantwoordelijkheid.
+Rationale
+Goede kwaliteit van producten ontstaat primair door het werk van mensen; standaardisatie, kwaliteitsnormen en monitoring zijn hulpmiddelen. De kans dat kwalitatief goede medewerkers ook goede producten maken, is groter dan bij minder goede medewerkers.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Betrokkenheid bij inzet (M22)
+De projectverantwoordelijke betrekt de projectenorganisatie bij het inzetten van nieuwe medewerkers op de projecten.
+Rationale
+Medewerkers moeten zowel een goede match hebben met het project en de projectspecifieke behoeften aan kennis en vaardigheden als een goede match met de projectenorganisatie als geheel. Van medewerkers wordt namelijk verwacht dat ze zowel bijdragen aan de projectdoelstellingen als aan de projectoverstijgende doelen van de kwaliteitsaanpak.
+ICTU
+Bij het inzetten van medewerkers zijn één of meer ICTU-medewerkers betrokken die ruime ervaring hebben met de ICTU-werkwijze en -kwaliteitsaanpak.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B70" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Warme kennisoverdracht (M23)
+De projectverantwoordelijke zorgt ervoor dat bij nieuwe projecten wordt gestart met ten minste twee projectleden die bekend zijn met de kwaliteitsaanpak.
+Rationale
+Het inzetten van teamleden die bekend zijn met de kwaliteitsaanpak zorgt voor een soepeler start van een nieuw project omdat zij bekend zijn met de inhoud van de kwaliteitsaanpak, zoals kwaliteitsnormen en tools, en omdat zij al doende nieuwe teamleden bekend kunnen maken met de kwaliteitsaanpak.
 </t>
         </r>
       </text>
@@ -650,9 +650,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.296, 23-07-2018.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.297, 23-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -667,6 +667,9 @@
     <t>Toelichting</t>
   </si>
   <si>
+    <t>Producten</t>
+  </si>
+  <si>
     <t>M01</t>
   </si>
   <si>
@@ -730,6 +733,12 @@
     <t>19. plan voor aflossen technische schuld, indien van toepassing</t>
   </si>
   <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>Gebruik van ISO-25010</t>
+  </si>
+  <si>
     <t>M02</t>
   </si>
   <si>
@@ -748,6 +757,15 @@
     <t>Geautomatiseerde regressietests</t>
   </si>
   <si>
+    <t>M26</t>
+  </si>
+  <si>
+    <t>Periodieke beoordeling informatiebeveiliging</t>
+  </si>
+  <si>
+    <t>Processen</t>
+  </si>
+  <si>
     <t>M05</t>
   </si>
   <si>
@@ -808,24 +826,39 @@
     <t>Periodiek projectoverleg</t>
   </si>
   <si>
+    <t>M27</t>
+  </si>
+  <si>
+    <t>Projecten en projectfasen expliciet afsluiten</t>
+  </si>
+  <si>
+    <t>M28</t>
+  </si>
+  <si>
+    <t>Self-assessment</t>
+  </si>
+  <si>
+    <t>Projectorganisatie</t>
+  </si>
+  <si>
     <t>M11</t>
   </si>
   <si>
     <t>Beheer en onderhoud kwaliteitsaanpak en -normen</t>
   </si>
   <si>
+    <t>M24</t>
+  </si>
+  <si>
+    <t>Implementatie van wijzigingen aan de kwaliteitsaanpak en kwaliteitsnormen</t>
+  </si>
+  <si>
     <t>M12</t>
   </si>
   <si>
     <t>Publicatie kwaliteitsaanpak en -normen</t>
   </si>
   <si>
-    <t>M13</t>
-  </si>
-  <si>
-    <t>Gebruik van ISO-25010</t>
-  </si>
-  <si>
     <t>M14</t>
   </si>
   <si>
@@ -914,30 +947,6 @@
   </si>
   <si>
     <t>Warme kennisoverdracht</t>
-  </si>
-  <si>
-    <t>M24</t>
-  </si>
-  <si>
-    <t>Implementatie van wijzigingen aan de kwaliteitsaanpak en kwaliteitsnormen</t>
-  </si>
-  <si>
-    <t>M26</t>
-  </si>
-  <si>
-    <t>Periodieke beoordeling informatiebeveiliging</t>
-  </si>
-  <si>
-    <t>M27</t>
-  </si>
-  <si>
-    <t>Projecten en projectfasen expliciet afsluiten</t>
-  </si>
-  <si>
-    <t>M28</t>
-  </si>
-  <si>
-    <t>Self-assessment</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1399,21 +1408,21 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="4"/>
       <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4">
@@ -1561,101 +1570,105 @@
       <c r="D22" s="5"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="4"/>
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="7"/>
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="7"/>
+      <c r="A32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -1663,7 +1676,7 @@
     <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -1671,7 +1684,7 @@
     <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
@@ -1679,161 +1692,165 @@
     <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" s="4"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="5"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="s">
+      <c r="A46" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="s">
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="7"/>
+      <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="s">
+      <c r="A49" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="B49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="7"/>
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="7"/>
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="7"/>
+      <c r="A52" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="5"/>
@@ -1841,25 +1858,23 @@
     <row r="54" spans="1:4">
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="4"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="7"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="5"/>
@@ -1867,7 +1882,7 @@
     <row r="57" spans="1:4">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="5"/>
@@ -1875,39 +1890,33 @@
     <row r="58" spans="1:4">
       <c r="A58" s="6"/>
       <c r="B58" s="6" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="4"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="7"/>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="4"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="7"/>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="4"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4">
@@ -1921,60 +1930,87 @@
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="3" t="s">
+      <c r="C64" s="7"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C65" s="4"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A46:D46"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C69">
+  <conditionalFormatting sqref="C3:C72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -1989,7 +2025,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C72">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.297, 23-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.315, 27-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.315, 27-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.323, 27-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -46,25 +46,25 @@
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
 | Product                 | Voorbereidingsfase  | Voorbereidingsfase met onderzoek  | Realisatiefase |
 |----------------------------------------------------------------------------------------|---|---|---|
-| business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
-| privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
-| beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
-| beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
-| ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
-| testdocumentatie: testplannen                                                          | ✔ | ✔ | ✔ |
-| testdocumentatie: testgevallen, rapportages                                            |   |   | ✔ |
-| informatiebeveiligingsplan                                                             | ✔ | ✔ | ✔ |
-| projectplan                                                                            | ✔ | ✔ |   |
-| kwaliteitsplan                                                                         | ✔ | ✔ |   |
-| deploybare versie van de software                                                      |   |   | ✔ |
-| broncode, inclusief de benodigdheden voor het bouwen van de software                   |   |   | ✔ |
-| regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten   |   |   | ✔ |
-| vrijgaveadvies                                                                         |   |   | ✔ |
-| release notes                                                                          |   |   | ✔ |
-| deploymentdocumentatie                                                                 |   |   | ✔ |
-| uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)                  |   | ✔ |   |
-| transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten   |   | ✔ |   |
-| plan voor aflossen technische schuld, indien van toepassing                            |   | ✔ |   ||
+| Business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
+| Privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
+| Beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
+| Beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
+| Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
+| Testdocumentatie: testplannen                                                          | ✔ | ✔ | ✔ |
+| Testdocumentatie: testgevallen, rapportages                                            |   |   | ✔ |
+| Informatiebeveiligingsplan                                                             | ✔ | ✔ | ✔ |
+| Projectplan                                                                            | ✔ | ✔ |   |
+| Kwaliteitsplan                                                                         | ✔ | ✔ |   |
+| Deploybare versie van de software                                                      |   |   | ✔ |
+| Broncode, inclusief de benodigdheden voor het bouwen van de software                   |   |   | ✔ |
+| Regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten   |   |   | ✔ |
+| Vrijgaveadvies                                                                         |   |   | ✔ |
+| Release notes                                                                          |   |   | ✔ |
+| Deploymentdocumentatie                                                                 |   |   | ✔ |
+| Uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)                  |   | ✔ |   |
+| Transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten   |   | ✔ |   |
+| Plan voor aflossen technische schuld, indien van toepassing                            |   | ✔ |   ||
 *) De opdrachtgever stelt bij voorkeur een BIA en PIA voorafgaand aan een voorbereidende fase beschikbaar. Indien dat niet mogelijk is worden deze analyses gedurende de voorbereidende fase onder verantwoordelijkheid van de opdrachtgever uitgevoerd.
 **) Indien een PIA niet nodig is, is een verklaring daaromtrent vereist.
 Rationale
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.323, 27-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.356, 27-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -676,61 +676,61 @@
     <t>Op te leveren producten</t>
   </si>
   <si>
-    <t>1. business impact analysis (BIA)*</t>
-  </si>
-  <si>
-    <t>2. privacy impact analysis (PIA)**</t>
-  </si>
-  <si>
-    <t>3. beschrijving van functionele eisen</t>
-  </si>
-  <si>
-    <t>4. beschrijving van niet-functionele eisen</t>
-  </si>
-  <si>
-    <t>5. ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)</t>
-  </si>
-  <si>
-    <t>6. testdocumentatie: testplannen</t>
-  </si>
-  <si>
-    <t>7. testdocumentatie: testgevallen, rapportages</t>
-  </si>
-  <si>
-    <t>8. informatiebeveiligingsplan</t>
-  </si>
-  <si>
-    <t>9. projectplan</t>
-  </si>
-  <si>
-    <t>10. kwaliteitsplan</t>
-  </si>
-  <si>
-    <t>11. deploybare versie van de software</t>
-  </si>
-  <si>
-    <t>12. broncode, inclusief de benodigdheden voor het bouwen van de software</t>
-  </si>
-  <si>
-    <t>13. regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten</t>
-  </si>
-  <si>
-    <t>14. vrijgaveadvies</t>
-  </si>
-  <si>
-    <t>15. release notes</t>
-  </si>
-  <si>
-    <t>16. deploymentdocumentatie</t>
-  </si>
-  <si>
-    <t>17. uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)</t>
-  </si>
-  <si>
-    <t>18. transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten</t>
-  </si>
-  <si>
-    <t>19. plan voor aflossen technische schuld, indien van toepassing</t>
+    <t>1. Business impact analysis (BIA)*</t>
+  </si>
+  <si>
+    <t>2. Privacy impact analysis (PIA)**</t>
+  </si>
+  <si>
+    <t>3. Beschrijving van functionele eisen</t>
+  </si>
+  <si>
+    <t>4. Beschrijving van niet-functionele eisen</t>
+  </si>
+  <si>
+    <t>5. Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)</t>
+  </si>
+  <si>
+    <t>6. Testdocumentatie: testplannen</t>
+  </si>
+  <si>
+    <t>7. Testdocumentatie: testgevallen, rapportages</t>
+  </si>
+  <si>
+    <t>8. Informatiebeveiligingsplan</t>
+  </si>
+  <si>
+    <t>9. Projectplan</t>
+  </si>
+  <si>
+    <t>10. Kwaliteitsplan</t>
+  </si>
+  <si>
+    <t>11. Deploybare versie van de software</t>
+  </si>
+  <si>
+    <t>12. Broncode, inclusief de benodigdheden voor het bouwen van de software</t>
+  </si>
+  <si>
+    <t>13. Regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten</t>
+  </si>
+  <si>
+    <t>14. Vrijgaveadvies</t>
+  </si>
+  <si>
+    <t>15. Release notes</t>
+  </si>
+  <si>
+    <t>16. Deploymentdocumentatie</t>
+  </si>
+  <si>
+    <t>17. Uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)</t>
+  </si>
+  <si>
+    <t>18. Transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten</t>
+  </si>
+  <si>
+    <t>19. Plan voor aflossen technische schuld, indien van toepassing</t>
   </si>
   <si>
     <t>M13</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -44,7 +44,7 @@
           <t xml:space="preserve">Op te leveren producten (M01)
 Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
-| Product                 | Voorbereidingsfase  | Voorbereidingsfase met onderzoek  | Realisatiefase |
+| Product                 | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
 |----------------------------------------------------------------------------------------|---|---|---|
 | Business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
 | Privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.356, 27-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.366, 27-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.366, 27-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.384, 28-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.384, 28-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.397, 28-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.397, 28-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.414, 28-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.414, 28-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.425, 28-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.425, 28-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.431, 29-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.431, 29-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.434, 29-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.434, 29-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.451, 29-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.451, 29-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.463, 29-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -44,27 +44,27 @@
           <t xml:space="preserve">Op te leveren producten (M01)
 Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
-| Product                 | Voorbereidingsfase  | Voorbereidingsfase met onderzoek  | Realisatiefase |
+| Product                 | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
 |----------------------------------------------------------------------------------------|---|---|---|
-| business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
-| privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
-| beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
-| beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
-| ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
-| testdocumentatie: testplannen                                                          | ✔ | ✔ | ✔ |
-| testdocumentatie: testgevallen, rapportages                                            |   |   | ✔ |
-| informatiebeveiligingsplan                                                             | ✔ | ✔ | ✔ |
-| projectplan                                                                            | ✔ | ✔ |   |
-| kwaliteitsplan                                                                         | ✔ | ✔ |   |
-| deploybare versie van de software                                                      |   |   | ✔ |
-| broncode, inclusief de benodigdheden voor het bouwen van de software                   |   |   | ✔ |
-| regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten   |   |   | ✔ |
-| vrijgaveadvies                                                                         |   |   | ✔ |
-| release notes                                                                          |   |   | ✔ |
-| deploymentdocumentatie                                                                 |   |   | ✔ |
-| uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)                  |   | ✔ |   |
-| transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten   |   | ✔ |   |
-| plan voor aflossen technische schuld, indien van toepassing                            |   | ✔ |   ||
+| Business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
+| Privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
+| Beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
+| Beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
+| Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
+| Testdocumentatie: testplannen                                                          | ✔ | ✔ | ✔ |
+| Testdocumentatie: testgevallen, rapportages                                            |   |   | ✔ |
+| Informatiebeveiligingsplan                                                             | ✔ | ✔ | ✔ |
+| Projectplan                                                                            | ✔ | ✔ |   |
+| Kwaliteitsplan                                                                         | ✔ | ✔ |   |
+| Deploybare versie van de software                                                      |   |   | ✔ |
+| Broncode, inclusief de benodigdheden voor het bouwen van de software                   |   |   | ✔ |
+| Regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten   |   |   | ✔ |
+| Vrijgaveadvies                                                                         |   |   | ✔ |
+| Release notes                                                                          |   |   | ✔ |
+| Deploymentdocumentatie                                                                 |   |   | ✔ |
+| Uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)                  |   | ✔ |   |
+| Transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten   |   | ✔ |   |
+| Plan voor aflossen technische schuld, indien van toepassing                            |   | ✔ |   ||
 *) De opdrachtgever stelt bij voorkeur een BIA en PIA voorafgaand aan een voorbereidende fase beschikbaar. Indien dat niet mogelijk is worden deze analyses gedurende de voorbereidende fase onder verantwoordelijkheid van de opdrachtgever uitgevoerd.
 **) Indien een PIA niet nodig is, is een verklaring daaromtrent vereist.
 Rationale
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.297, 23-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.463, 29-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -676,61 +676,61 @@
     <t>Op te leveren producten</t>
   </si>
   <si>
-    <t>1. business impact analysis (BIA)*</t>
-  </si>
-  <si>
-    <t>2. privacy impact analysis (PIA)**</t>
-  </si>
-  <si>
-    <t>3. beschrijving van functionele eisen</t>
-  </si>
-  <si>
-    <t>4. beschrijving van niet-functionele eisen</t>
-  </si>
-  <si>
-    <t>5. ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)</t>
-  </si>
-  <si>
-    <t>6. testdocumentatie: testplannen</t>
-  </si>
-  <si>
-    <t>7. testdocumentatie: testgevallen, rapportages</t>
-  </si>
-  <si>
-    <t>8. informatiebeveiligingsplan</t>
-  </si>
-  <si>
-    <t>9. projectplan</t>
-  </si>
-  <si>
-    <t>10. kwaliteitsplan</t>
-  </si>
-  <si>
-    <t>11. deploybare versie van de software</t>
-  </si>
-  <si>
-    <t>12. broncode, inclusief de benodigdheden voor het bouwen van de software</t>
-  </si>
-  <si>
-    <t>13. regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten</t>
-  </si>
-  <si>
-    <t>14. vrijgaveadvies</t>
-  </si>
-  <si>
-    <t>15. release notes</t>
-  </si>
-  <si>
-    <t>16. deploymentdocumentatie</t>
-  </si>
-  <si>
-    <t>17. uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)</t>
-  </si>
-  <si>
-    <t>18. transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten</t>
-  </si>
-  <si>
-    <t>19. plan voor aflossen technische schuld, indien van toepassing</t>
+    <t>1. Business impact analysis (BIA)*</t>
+  </si>
+  <si>
+    <t>2. Privacy impact analysis (PIA)**</t>
+  </si>
+  <si>
+    <t>3. Beschrijving van functionele eisen</t>
+  </si>
+  <si>
+    <t>4. Beschrijving van niet-functionele eisen</t>
+  </si>
+  <si>
+    <t>5. Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)</t>
+  </si>
+  <si>
+    <t>6. Testdocumentatie: testplannen</t>
+  </si>
+  <si>
+    <t>7. Testdocumentatie: testgevallen, rapportages</t>
+  </si>
+  <si>
+    <t>8. Informatiebeveiligingsplan</t>
+  </si>
+  <si>
+    <t>9. Projectplan</t>
+  </si>
+  <si>
+    <t>10. Kwaliteitsplan</t>
+  </si>
+  <si>
+    <t>11. Deploybare versie van de software</t>
+  </si>
+  <si>
+    <t>12. Broncode, inclusief de benodigdheden voor het bouwen van de software</t>
+  </si>
+  <si>
+    <t>13. Regressietests, inclusief de benodigdheden voor het uitvoeren van de regressietesten</t>
+  </si>
+  <si>
+    <t>14. Vrijgaveadvies</t>
+  </si>
+  <si>
+    <t>15. Release notes</t>
+  </si>
+  <si>
+    <t>16. Deploymentdocumentatie</t>
+  </si>
+  <si>
+    <t>17. Uitkomsten onderzoek (bevindingen, risico's, mitigerende maatregelen)</t>
+  </si>
+  <si>
+    <t>18. Transitieplan voor af te bouwen, te onderhouden en/of te herbouwen softwareproducten</t>
+  </si>
+  <si>
+    <t>19. Plan voor aflossen technische schuld, indien van toepassing</t>
   </si>
   <si>
     <t>M13</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.463, 29-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.476, 30-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.476, 30-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.488, 30-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.488, 30-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.515, 30-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.463, 29-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.515, 30-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -206,7 +206,7 @@
 ICTU
 ICTU gebruikt hiervoor Scrum, een raamwerk voor agile productontwikkeling. ICTU propageert de kernwaarden van Scrum en vereist de volgende onderdelen van Scrum:
 - Scrum team bestaand uit product owner, ontwikkelteam en Scrum master,
-- Proces: daily scrum, sprints, sprint planning, sprint review, sprint refinement,
+- Proces met daily scrum, sprints, sprint planning, sprint review, sprint refinement,
 - Definition of Done,
 - Definition of Ready,
 - Product backlog.
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="0">
+    <comment ref="B37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,8 +297,8 @@
 Voor de belangrijkste verschillen beschrijft de projectverantwoordelijke:
 - het geconstateerde verschil,
 - reden voor het verschil,
-- in geval van acceptatie: waarom het verschil geaccepteerd wordt,
-- in geval van verbeteractie: planning om het verschil weg te werken.
+- in geval van acceptatie; waarom het verschil geaccepteerd wordt,
+- in geval van verbeteractie; planning om het verschil weg te werken.
 Rationale
 De implementatie van een nieuwe versie van de kwaliteitsaanpak kost tijd. De introductie en aanpassing van normen en tools, kunnen verschillende consequenties hebben: bestaande broncode blijkt niet meer volledig te voldoen aan de normen, een nieuwe tool moet in de ontwikkelstraat worden toegevoegd, enzovoort.
 Anderzijds is het voor de uniformiteit van kwaliteitsmeting en rapportage en de doorontwikkeling van de kwaliteitsaanpak van belang de implementatieperiode zo kort mogelijk en voorspelbaar te houden. Daarom stemt de projectenorganisatie met de projecten een implementatiemoment en implementatieperiode af.
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0">
+    <comment ref="B49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0">
+    <comment ref="B55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0">
+    <comment ref="B56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="0">
+    <comment ref="B67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0">
+    <comment ref="B71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +573,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B68" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -650,9 +650,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.515, 30-07-2018.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.710, 31-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -772,6 +772,21 @@
     <t>Iteratief en incrementeel ontwikkelproces</t>
   </si>
   <si>
+    <t>1. Scrum team bestaand uit product owner, ontwikkelteam en Scrum master</t>
+  </si>
+  <si>
+    <t>2. Proces met daily scrum, sprints, sprint planning, sprint review, sprint refinement</t>
+  </si>
+  <si>
+    <t>3. Definition of Done</t>
+  </si>
+  <si>
+    <t>4. Definition of Ready</t>
+  </si>
+  <si>
+    <t>5. Product backlog</t>
+  </si>
+  <si>
     <t>M06</t>
   </si>
   <si>
@@ -805,7 +820,7 @@
     <t>7. installatie van de software</t>
   </si>
   <si>
-    <t>8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.</t>
+    <t>8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever</t>
   </si>
   <si>
     <t>M08</t>
@@ -1368,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1646,29 +1661,25 @@
       <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="5"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="5"/>
@@ -1676,7 +1687,7 @@
     <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="5"/>
@@ -1684,25 +1695,29 @@
     <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
@@ -1730,161 +1745,161 @@
       <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="3" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C43" s="7"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="3" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="s">
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="s">
+      <c r="B56" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="s">
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
@@ -1920,19 +1935,17 @@
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="5"/>
@@ -1940,7 +1953,7 @@
     <row r="64" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="5"/>
@@ -1948,69 +1961,111 @@
     <row r="65" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C66" s="4"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="7"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C69" s="4"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
+      <c r="B73" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A51:D51"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C72">
+  <conditionalFormatting sqref="C3:C77">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -2025,7 +2080,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C72">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C77">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.710, 31-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.718, 31-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.1.718, 31-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1, 31-07-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1, 31-07-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.0-build.1, 01-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -652,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.0-build.1, 01-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.0-build.5, 01-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -206,16 +206,15 @@
 ICTU
 ICTU gebruikt hiervoor Scrum, een raamwerk voor agile productontwikkeling. ICTU propageert de kernwaarden van Scrum en vereist de volgende onderdelen van Scrum:
 - Scrum team bestaand uit product owner, ontwikkelteam en Scrum master,
-- Proces met daily scrum, sprints, sprint planning, sprint review, sprint refinement,
-- Definition of Done,
-- Definition of Ready,
-- Product backlog.
+- Proces met daily scrum, sprints, sprint planning, sprint review, sprint retrospective en sprint refinement,
+- Definition of Ready en Definition of Done,
+- Product backlog en sprint backlog.
 Vast onderdeel van de Definition of Done is dat producten actueel en onderling consistent zijn ([M01: Op te leveren producten](#op-te-leveren-producten-m01-)) en voldoen aan de door de projectenorganisatie vastgestelde kwaliteitsnormen ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)).
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="B36" authorId="0">
+    <comment ref="B35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -234,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B37" authorId="0">
+    <comment ref="B36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -263,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B50" authorId="0">
+    <comment ref="B49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -405,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -432,7 +431,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
+    <comment ref="B55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B67" authorId="0">
+    <comment ref="B66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -573,7 +572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B71" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +591,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -650,9 +649,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.0-build.5, 01-08-2018.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.1, 29-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -775,16 +774,13 @@
     <t>1. Scrum team bestaand uit product owner, ontwikkelteam en Scrum master</t>
   </si>
   <si>
-    <t>2. Proces met daily scrum, sprints, sprint planning, sprint review, sprint refinement</t>
-  </si>
-  <si>
-    <t>3. Definition of Done</t>
-  </si>
-  <si>
-    <t>4. Definition of Ready</t>
-  </si>
-  <si>
-    <t>5. Product backlog</t>
+    <t>2. Proces met daily scrum, sprints, sprint planning, sprint review, sprint retrospective en sprint refinement</t>
+  </si>
+  <si>
+    <t>3. Definition of Ready en Definition of Done</t>
+  </si>
+  <si>
+    <t>4. Product backlog en sprint backlog</t>
   </si>
   <si>
     <t>M06</t>
@@ -1383,7 +1379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1693,31 +1689,31 @@
       <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="5"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:4">
@@ -1777,129 +1773,129 @@
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="s">
+      <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="7"/>
+      <c r="B45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
@@ -1967,21 +1963,21 @@
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="7"/>
+      <c r="B66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
@@ -2001,71 +1997,63 @@
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="B70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C75" s="4"/>
-      <c r="D75" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C77">
+  <conditionalFormatting sqref="C3:C76">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -2080,7 +2068,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C77">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C76">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -651,7 +651,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.1, 29-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.4, 29-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -44,10 +44,10 @@
           <t xml:space="preserve">Op te leveren producten (M01)
 Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
-| Product                 | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
+| Product                | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
 |----------------------------------------------------------------------------------------|---|---|---|
-| Business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
-| Privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
+| BIA (Business impact analysis)*                                                        | ✔ | ✔ | ✔ |
+| PIA (Privacy impact analysis)**                                                        | ✔ | ✔ | ✔ |
 | Beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
 | Beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
 | Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
@@ -76,11 +76,11 @@
 In een PIA legt de vragende organisatie vast wat de privacy-gevoeligheid is van de gegevens die in een proces of systeem worden verzameld en verwerkt. Zicht op privacygevoelige gegevens en het (laten) treffen van adequate en afdoende beschermingsmaatregelen is een wettelijke plicht die een organisatie niet aan een andere partij kan verdragen.
 ICTU
 ICTU hanteert de volgende documenten, templates en documentstandaarden voor softwarerealisatieprojecten:
-- De beschrijving van niet-functionele eisen is gebaseerd op ISO-25010, BIR en SSD, en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
+- De beschrijving van niet-functionele eisen is gebaseerd op ISO (International Organization for Standardization)-25010, de BIR (Baseline Informatiebeveiliging Rijksdienst) en de methode Grip op SSD (Secure software development) van het CIP (Centrum Informatiebeveiliging en Privacybescherming), en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE (Niet-functionele eisen)-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
 - De beschrijving van functionele eisen bestaat uit een geprioriteerde backlog met epics en/of user stories. De beschrijving bevat in ieder geval eisen voor (ondersteuning van) beheerfuncties die door de beoogd beheerder gesteld worden en voor logging, inclusief de (globale) inhoud van te loggen business events (gebeurtenissen op procesniveau) en de daarvoor geldende bewaartermijnen;
-- De ontwerp- en architectuurdocumentatie bestaat uit een projectstartarchitectuur (PSA), een softwarearchitectuurdocument (SAD), een infrastructuurarchitectuur (IA), een globaal functioneel ontwerp (GFO) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
-- De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een productrisicoanalyse (PRA). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
-- Het informatiebeveiligingsplan is gebaseerd op een dreigingen- en kwetsbaarhedenanalyse (TVA, threat and vulnerability assessment) en bevat een maatregelenselectie informatiebeveiliging. De TVA wordt tijdens de voorfase opgesteld op basis van de resultaten van de BIA, de eventuele PIA en inhoud van de ontwerp- en architectuurdocumentatie. Een TVA levert een deel van een traceerbare onderbouwing voor de te treffen beveiligingsmaatregelen;
+- De ontwerp- en architectuurdocumentatie bestaat uit een PSA (Projectstartarchitectuur), een SAD (Softwarearchitectuurdocument), een IA (Infrastructuurarchitectuur), een GFO (Globaal functioneel ontwerp) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
+- De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een PRA (Productrisicoanalyse). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
+- Het informatiebeveiligingsplan is gebaseerd op een dreigingen- en kwetsbaarhedenanalyse (TVA (Threat and vulnerability assessment)) en bevat een maatregelenselectie informatiebeveiliging. De TVA wordt tijdens de voorfase opgesteld op basis van de resultaten van de BIA, de eventuele PIA en inhoud van de ontwerp- en architectuurdocumentatie. Een TVA levert een deel van een traceerbare onderbouwing voor de te treffen beveiligingsmaatregelen;
 - Het vrijgaveadvies bevat ten minste alle nog openstaande testbevindingen en geconstateerde beveiligingsbevindingen. Zie ook [M26: Periodieke beoordeling informatiebeveiliging](#periodieke-beoordeling-informatiebeveiliging-m26-) en [M16: Verplichte tools](#verplichte-tools-m16-). Indien er beveiligingsissues zijn, zijn deze voorzien van een beschreven voorziene impact.
 - De deploymentdocumentatie bevat informatie over de eisen die een applicatie stelt aan een omgeving en de stappen die nodig zijn om de applicatie in die omgeving veilig te installeren en configureren. De documentatie bevat daartoe onder meer aanwijzingen voor de HTTP-header en -request-configuratie van de webserver en voor het verwijderen van overbodige header-informatie zoals de 'Server'-header. Ook zijn er aanwijzingen voor veilige configuratie(s) van (externe) toegang tot de beheerinterface. De documentatie bevat daarnaast in ieder geval een beschrijving van de protocollen en services die de applicatie aanbiedt, de protocollen, services en accounts die het product gebruikt en de protocollen, services en accounts die de applicatie gebruikt voor beheer;
 Zie de bijlage [Documenten voor M01: Op te leveren producten](#documenten-voor-m01-op-te-leveren-producten) voor een uitgebreider overzicht van de documenten en documentstandaarden die ICTU hanteert voor softwarerealisatieprojecten.
@@ -99,7 +99,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Gebruik van ISO-25010 (M13)
-De standaard ISO/IEC 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
+De standaard ISO/IEC (International Electrotechnical Commission) 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
 Voor specificatie en documentatie van vereiste en gewenste kwaliteitseigenschappen, de niet-functionele eisen, maken projecten gebruik van de terminologie uit ISO-25010. Projecten gebruiken ISO-25010 om te controleren of alle relevante kwaliteitseigenschappen van het op te leveren eindproduct worden meegenomen in de ontwikkeling en/of onderhoud van het product.
 Rationale
 De standaard ISO-25010 biedt een model voor productkwaliteit. De standaard biedt geen concrete maatregelen, maar biedt wel een begrippenkader en dekt het volledige spectrum van mogelijk relevante kwaliteitseigenschappen af. Het gebruiken van een standaard voor specificatie van kwaliteit voorkomt miscommunicatie over kwaliteitseigenschappen en de breedte van de standaard zorgt ervoor dat alle relevante aspecten aan bod komen.
@@ -124,7 +124,7 @@
 Rationale
 Het zo snel mogelijk en continu voldoen aan de kwaliteitsnormen beperkt toekomstige hersteltijd. Het dwingt tevens een structurele kwaliteitscontrole af.
 ICTU
-Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem' (HQ). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
+Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem', genaamd HQ (Holistic Software Quality Reporting). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
 </t>
         </r>
       </text>
@@ -178,12 +178,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
-Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de Baseline Informatiebeveiliging Rijksdienst (BIR), bieden een basis voor de beoordeling.
+Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de BIR (Baseline Informatiebeveiliging Rijksdienst), bieden een basis voor de beoordeling.
 De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld kan worden aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
 Rationale
 Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
 ICTU
-Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
+Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (zoals bijvoorbeeld in de OWASP Top 10 genoemd) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
 Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
 De beveiligingstesten vinden plaats in aanvulling op de door tools uitgevoerde continue beveiligingsanalyse van de gerealiseerde software, zie [M16: Verplichte tools](#verplichte-tools-m16-). Bevindingen uit zowel een beveiligingstest als de continue analyse worden in Jira als issue - gemarkeerd als beveiligingsbugreport - vastgelegd op de backlog van het project.
 </t>
@@ -257,7 +257,7 @@
 Rationale
 Software incrementeel opleveren (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)) vereist dat de software frequent gebouwd, getest en opgeleverd kan worden. Om dit efficiënt en foutvrij te doen, dient het proces van bouwen, testen en opleveren geautomatiseerd te zijn; een continuous delivery pipeline faciliteert dit.
 ICTU
-ICTU gebruikt Jenkins of Team Foundation Server (TFS) als tool voor de implementatie van de continuous delivery pipeline. De ICTU Release Manager ondersteunt de laatste stap (oplevering van het totale product).
+ICTU gebruikt Jenkins of TFS (Team Foundation Server) als tool voor de implementatie van de continuous delivery pipeline. De ICTU Release Manager ondersteunt de laatste stap (oplevering van het totale product).
 </t>
         </r>
       </text>
@@ -276,7 +276,7 @@
 Rationale
 De aanwezigheid van technische schuld heeft nadelige invloed op de kwaliteit van de eindproducten. Anderzijds is het ontstaan van technische schuld gedurende een project vaak onvermijdelijk. Het is daarnaast ook mogelijk dat een deel van de technische schuld bij aanvang van het project al bestond en mogelijk niet wordt opgelost. In alle gevallen is het verstandig om te weten welke technische schuld bestaat. Om te voorkomen dat technische schuld niet wordt opgelost en uitsluitend toeneemt, is het zaak om het verminderen van technische schuld planmatig aan te pakken.
 ICTU
-ICTU gebruikt [HQ](https://github.com/ICTU/quality-report/) (een door ICTU ontwikkeld, open source, geautomatiseerd kwaliteitssysteem) om bestaande technische schuld inzichtelijk te maken en de planning van het aflossen van de schuld vast te leggen, voor zover het technische schuld betreft van kwaliteitseigenschappen die HQ kan meten.
+ICTU gebruikt HQ (Holistic Software Quality Reporting), een door ICTU ontwikkeld, open source, geautomatiseerd kwaliteitssysteem, om bestaande technische schuld inzichtelijk te maken en de planning van het aflossen van de schuld vast te leggen, voor zover het technische schuld betreft van kwaliteitseigenschappen die HQ kan meten.
 </t>
         </r>
       </text>
@@ -483,7 +483,7 @@
           <t xml:space="preserve">Open source tools (M15)
 Bij de selectie van tools ter ondersteuning van de projectuitvoering  geeft de projectenorganisatie voorkeur aan open source tools.
 Rationale
-Conform de rationale uit NORA voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
+Conform de rationale uit NORA (Nederlandse Overheid Referentiearchitectuur) voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
 ICTU
 Tools die ICTU ontwikkelt ter ondersteuning van softwarerealisatieprojecten, worden bij voorkeur als open source beschikbaar gesteld.
 </t>
@@ -515,12 +515,12 @@
 ICTU
 ICTU gebruikt hiervoor de volgende tools:
 1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
-2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,
+2. Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,
 3. SonarQube,
 4. Release Manager,
-5. Reporting (Birt),
+5. Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),
 6. Kwaliteitssysteem (HQ),
-7. OpenVAS en OWASP ZAP,
+7. OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),
 8. OWASP Dependency Checker,
 9. Checkmarx.
 </t>
@@ -586,7 +586,7 @@
 Rationale
 Door het bieden van een afgeschermde digitale omgeving zijn de afhankelijkheden en invloeden tussen projecten minimaal en worden beveiligingsrisico's verkleind.
 ICTU
-ICTU ondersteunt dit met Docker en/of virtuele machines (VM) en een VLAN per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
+ICTU ondersteunt dit met Docker en/of virtuele machines en een VLAN (Virtual local area network) per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
 </t>
         </r>
       </text>
@@ -651,7 +651,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.4, 29-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.37, 31-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -675,10 +675,10 @@
     <t>Op te leveren producten</t>
   </si>
   <si>
-    <t>1. Business impact analysis (BIA)*</t>
-  </si>
-  <si>
-    <t>2. Privacy impact analysis (PIA)**</t>
+    <t>1. BIA (Business impact analysis)*</t>
+  </si>
+  <si>
+    <t>2. PIA (Privacy impact analysis)**</t>
   </si>
   <si>
     <t>3. Beschrijving van functionele eisen</t>
@@ -891,7 +891,7 @@
     <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,</t>
   </si>
   <si>
-    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,</t>
+    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,</t>
   </si>
   <si>
     <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube,</t>
@@ -900,13 +900,13 @@
     <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Release Manager,</t>
   </si>
   <si>
-    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt),</t>
+    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),</t>
   </si>
   <si>
     <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitssysteem (HQ),</t>
   </si>
   <si>
-    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP,</t>
+    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),</t>
   </si>
   <si>
     <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker,</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -651,7 +651,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.37, 31-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.38, 31-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -44,10 +44,10 @@
           <t xml:space="preserve">Op te leveren producten (M01)
 Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
-| Product                 | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
+| Product                | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
 |----------------------------------------------------------------------------------------|---|---|---|
-| Business impact analysis (BIA)*                                                        | ✔ | ✔ | ✔ |
-| Privacy impact analysis (PIA)**                                                        | ✔ | ✔ | ✔ |
+| BIA (Business impact analysis)*                                                        | ✔ | ✔ | ✔ |
+| PIA (Privacy impact analysis)**                                                        | ✔ | ✔ | ✔ |
 | Beschrijving van functionele eisen                                                     | ✔ | ✔ | ✔ |
 | Beschrijving van niet-functionele eisen                                                | ✔ | ✔ | ✔ |
 | Ontwerp- en architectuurdocumentatie (software, interactie, infrastructuur)            | ✔ | ✔ | ✔ |
@@ -76,11 +76,11 @@
 In een PIA legt de vragende organisatie vast wat de privacy-gevoeligheid is van de gegevens die in een proces of systeem worden verzameld en verwerkt. Zicht op privacygevoelige gegevens en het (laten) treffen van adequate en afdoende beschermingsmaatregelen is een wettelijke plicht die een organisatie niet aan een andere partij kan verdragen.
 ICTU
 ICTU hanteert de volgende documenten, templates en documentstandaarden voor softwarerealisatieprojecten:
-- De beschrijving van niet-functionele eisen is gebaseerd op ISO-25010, BIR en SSD, en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
+- De beschrijving van niet-functionele eisen is gebaseerd op ISO (International Organization for Standardization)-25010, de BIR (Baseline Informatiebeveiliging Rijksdienst) en de methode Grip op SSD (Secure software development) van het CIP (Centrum Informatiebeveiliging en Privacybescherming), en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE (Niet-functionele eisen)-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
 - De beschrijving van functionele eisen bestaat uit een geprioriteerde backlog met epics en/of user stories. De beschrijving bevat in ieder geval eisen voor (ondersteuning van) beheerfuncties die door de beoogd beheerder gesteld worden en voor logging, inclusief de (globale) inhoud van te loggen business events (gebeurtenissen op procesniveau) en de daarvoor geldende bewaartermijnen;
-- De ontwerp- en architectuurdocumentatie bestaat uit een projectstartarchitectuur (PSA), een softwarearchitectuurdocument (SAD), een infrastructuurarchitectuur (IA), een globaal functioneel ontwerp (GFO) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
-- De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een productrisicoanalyse (PRA). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
-- Het informatiebeveiligingsplan is gebaseerd op een dreigingen- en kwetsbaarhedenanalyse (TVA, threat and vulnerability assessment) en bevat een maatregelenselectie informatiebeveiliging. De TVA wordt tijdens de voorfase opgesteld op basis van de resultaten van de BIA, de eventuele PIA en inhoud van de ontwerp- en architectuurdocumentatie. Een TVA levert een deel van een traceerbare onderbouwing voor de te treffen beveiligingsmaatregelen;
+- De ontwerp- en architectuurdocumentatie bestaat uit een PSA (Projectstartarchitectuur), een SAD (Softwarearchitectuurdocument), een IA (Infrastructuurarchitectuur), een GFO (Globaal functioneel ontwerp) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
+- De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een PRA (Productrisicoanalyse). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
+- Het informatiebeveiligingsplan is gebaseerd op een dreigingen- en kwetsbaarhedenanalyse (TVA (Threat and vulnerability assessment)) en bevat een maatregelenselectie informatiebeveiliging. De TVA wordt tijdens de voorfase opgesteld op basis van de resultaten van de BIA, de eventuele PIA en inhoud van de ontwerp- en architectuurdocumentatie. Een TVA levert een deel van een traceerbare onderbouwing voor de te treffen beveiligingsmaatregelen;
 - Het vrijgaveadvies bevat ten minste alle nog openstaande testbevindingen en geconstateerde beveiligingsbevindingen. Zie ook [M26: Periodieke beoordeling informatiebeveiliging](#periodieke-beoordeling-informatiebeveiliging-m26-) en [M16: Verplichte tools](#verplichte-tools-m16-). Indien er beveiligingsissues zijn, zijn deze voorzien van een beschreven voorziene impact.
 - De deploymentdocumentatie bevat informatie over de eisen die een applicatie stelt aan een omgeving en de stappen die nodig zijn om de applicatie in die omgeving veilig te installeren en configureren. De documentatie bevat daartoe onder meer aanwijzingen voor de HTTP-header en -request-configuratie van de webserver en voor het verwijderen van overbodige header-informatie zoals de 'Server'-header. Ook zijn er aanwijzingen voor veilige configuratie(s) van (externe) toegang tot de beheerinterface. De documentatie bevat daarnaast in ieder geval een beschrijving van de protocollen en services die de applicatie aanbiedt, de protocollen, services en accounts die het product gebruikt en de protocollen, services en accounts die de applicatie gebruikt voor beheer;
 Zie de bijlage [Documenten voor M01: Op te leveren producten](#documenten-voor-m01-op-te-leveren-producten) voor een uitgebreider overzicht van de documenten en documentstandaarden die ICTU hanteert voor softwarerealisatieprojecten.
@@ -99,7 +99,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Gebruik van ISO-25010 (M13)
-De standaard ISO/IEC 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
+De standaard ISO/IEC (International Electrotechnical Commission) 25010:2011, kortweg "ISO-25010", biedt een model voor het beschrijven van productkwaliteit. Kwaliteitseigenschappen zijn voorzien van een naam, definitie en classificatie. ISO-25010 dekt een breed spectrum van kwaliteitseigenschappen af.
 Voor specificatie en documentatie van vereiste en gewenste kwaliteitseigenschappen, de niet-functionele eisen, maken projecten gebruik van de terminologie uit ISO-25010. Projecten gebruiken ISO-25010 om te controleren of alle relevante kwaliteitseigenschappen van het op te leveren eindproduct worden meegenomen in de ontwikkeling en/of onderhoud van het product.
 Rationale
 De standaard ISO-25010 biedt een model voor productkwaliteit. De standaard biedt geen concrete maatregelen, maar biedt wel een begrippenkader en dekt het volledige spectrum van mogelijk relevante kwaliteitseigenschappen af. Het gebruiken van een standaard voor specificatie van kwaliteit voorkomt miscommunicatie over kwaliteitseigenschappen en de breedte van de standaard zorgt ervoor dat alle relevante aspecten aan bod komen.
@@ -124,7 +124,7 @@
 Rationale
 Het zo snel mogelijk en continu voldoen aan de kwaliteitsnormen beperkt toekomstige hersteltijd. Het dwingt tevens een structurele kwaliteitscontrole af.
 ICTU
-Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem' (HQ). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
+Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem', genaamd HQ (Holistic Software Quality Reporting). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
 </t>
         </r>
       </text>
@@ -178,12 +178,12 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Periodieke beoordeling informatiebeveiliging (M26)
-Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de Baseline Informatiebeveiliging Rijksdienst (BIR), bieden een basis voor de beoordeling.
+Projecten laten periodiek de beveiliging van de ontwikkelde software beoordelen. De code wordt zowel geautomatiseerd als handmatig door een beveiligingsexpert onderzocht op veelvoorkomende kwetsbaarheden en op het voldoen aan voorgeschreven normen. Overheidsspecifieke beveiligingsnormen of -raamwerken, zoals de BIR (Baseline Informatiebeveiliging Rijksdienst), bieden een basis voor de beoordeling.
 De projectorganisatie zorgt ervoor dat deze expertise op afroep beschikbaar gesteld kan worden aan projecten. Bevindingen uit de beveiligingstest worden vastgelegd als onderdeel van de werkvoorraad voor het ontwikkelproces (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)).
 Rationale
 Door het inschakelen van actuele, specifieke expertise wordt de kans vergroot dat eventuele kwetsbaarheden in de gerealiseerde software tijdig herkend worden.
 ICTU
-Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (OWASP) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
+Software wordt minimaal bij iedere grote release of ten minste twee keer per jaar onderworpen aan een beveiligingstest door beveiligingsexperts die ICTU daarvoor inhuurt. Op basis van documentatie en architectuurstudie, crystalbox security audits (broncodescan) en penetratieaudits beoordelen deze experts of de software voldoet aan de projectspecifieke niet-functionele eisen met betrekking tot beveiliging, of bekende kwetsbaarheden (zoals bijvoorbeeld in de OWASP Top 10 genoemd) vermeden zijn en in hoeverre voldoende invulling gegeven is aan de normen vanuit die vanuit BIR en SSD gelden.
 Indien door de opdrachtgever gewenst kunnen securitytesten door een onafhankelijke derde partij worden uitgevoerd in een daarvoor door de opdrachtgever beschikbaar gestelde omgeving. Dit kan zowel incidenteel als structureel worden ingericht. Afspraken hierover worden bij voorkeur al in de voorbereidingsfase gemaakt.
 De beveiligingstesten vinden plaats in aanvulling op de door tools uitgevoerde continue beveiligingsanalyse van de gerealiseerde software, zie [M16: Verplichte tools](#verplichte-tools-m16-). Bevindingen uit zowel een beveiligingstest als de continue analyse worden in Jira als issue - gemarkeerd als beveiligingsbugreport - vastgelegd op de backlog van het project.
 </t>
@@ -257,7 +257,7 @@
 Rationale
 Software incrementeel opleveren (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)) vereist dat de software frequent gebouwd, getest en opgeleverd kan worden. Om dit efficiënt en foutvrij te doen, dient het proces van bouwen, testen en opleveren geautomatiseerd te zijn; een continuous delivery pipeline faciliteert dit.
 ICTU
-ICTU gebruikt Jenkins of Team Foundation Server (TFS) als tool voor de implementatie van de continuous delivery pipeline. De ICTU Release Manager ondersteunt de laatste stap (oplevering van het totale product).
+ICTU gebruikt Jenkins of TFS (Team Foundation Server) als tool voor de implementatie van de continuous delivery pipeline. De ICTU Release Manager ondersteunt de laatste stap (oplevering van het totale product).
 </t>
         </r>
       </text>
@@ -276,7 +276,7 @@
 Rationale
 De aanwezigheid van technische schuld heeft nadelige invloed op de kwaliteit van de eindproducten. Anderzijds is het ontstaan van technische schuld gedurende een project vaak onvermijdelijk. Het is daarnaast ook mogelijk dat een deel van de technische schuld bij aanvang van het project al bestond en mogelijk niet wordt opgelost. In alle gevallen is het verstandig om te weten welke technische schuld bestaat. Om te voorkomen dat technische schuld niet wordt opgelost en uitsluitend toeneemt, is het zaak om het verminderen van technische schuld planmatig aan te pakken.
 ICTU
-ICTU gebruikt [HQ](https://github.com/ICTU/quality-report/) (een door ICTU ontwikkeld, open source, geautomatiseerd kwaliteitssysteem) om bestaande technische schuld inzichtelijk te maken en de planning van het aflossen van de schuld vast te leggen, voor zover het technische schuld betreft van kwaliteitseigenschappen die HQ kan meten.
+ICTU gebruikt HQ (Holistic Software Quality Reporting), een door ICTU ontwikkeld, open source, geautomatiseerd kwaliteitssysteem, om bestaande technische schuld inzichtelijk te maken en de planning van het aflossen van de schuld vast te leggen, voor zover het technische schuld betreft van kwaliteitseigenschappen die HQ kan meten.
 </t>
         </r>
       </text>
@@ -483,7 +483,7 @@
           <t xml:space="preserve">Open source tools (M15)
 Bij de selectie van tools ter ondersteuning van de projectuitvoering  geeft de projectenorganisatie voorkeur aan open source tools.
 Rationale
-Conform de rationale uit NORA voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
+Conform de rationale uit NORA (Nederlandse Overheid Referentiearchitectuur) voor het gebruik van open source tools, zoals beschreven in NORA v3.0 drijfveer “beleid open standaarden” ([http://www.noraonline.nl/wiki/Beleid_open_standaarden](http://www.noraonline.nl/wiki/Beleid_open_standaarden)).
 ICTU
 Tools die ICTU ontwikkelt ter ondersteuning van softwarerealisatieprojecten, worden bij voorkeur als open source beschikbaar gesteld.
 </t>
@@ -515,12 +515,12 @@
 ICTU
 ICTU gebruikt hiervoor de volgende tools:
 1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
-2. Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,
+2. Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,
 3. SonarQube,
 4. Release Manager,
-5. Reporting (Birt),
+5. Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),
 6. Kwaliteitssysteem (HQ),
-7. OpenVAS en OWASP ZAP,
+7. OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),
 8. OWASP Dependency Checker,
 9. Checkmarx.
 </t>
@@ -586,7 +586,7 @@
 Rationale
 Door het bieden van een afgeschermde digitale omgeving zijn de afhankelijkheden en invloeden tussen projecten minimaal en worden beveiligingsrisico's verkleind.
 ICTU
-ICTU ondersteunt dit met Docker en/of virtuele machines (VM) en een VLAN per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
+ICTU ondersteunt dit met Docker en/of virtuele machines en een VLAN (Virtual local area network) per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
 </t>
         </r>
       </text>
@@ -651,7 +651,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.4, 29-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.38, 31-08-2018.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -675,10 +675,10 @@
     <t>Op te leveren producten</t>
   </si>
   <si>
-    <t>1. Business impact analysis (BIA)*</t>
-  </si>
-  <si>
-    <t>2. Privacy impact analysis (PIA)**</t>
+    <t>1. BIA (Business impact analysis)*</t>
+  </si>
+  <si>
+    <t>2. PIA (Privacy impact analysis)**</t>
   </si>
   <si>
     <t>3. Beschrijving van functionele eisen</t>
@@ -891,7 +891,7 @@
     <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,</t>
   </si>
   <si>
-    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en Team Foundation Server (TFS) voor DotNet-projecten,</t>
+    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,</t>
   </si>
   <si>
     <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube,</t>
@@ -900,13 +900,13 @@
     <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Release Manager,</t>
   </si>
   <si>
-    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (Birt),</t>
+    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),</t>
   </si>
   <si>
     <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitssysteem (HQ),</t>
   </si>
   <si>
-    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS en OWASP ZAP,</t>
+    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),</t>
   </si>
   <si>
     <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker,</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -319,7 +319,7 @@
           </rPr>
           <t xml:space="preserve">Periodiek projectoverleg (M10)
 De projectverantwoordelijke organiseert een periodiek projectoverleg. Dit overleg vindt wekelijks plaats en duurt niet langer dan een uur.
-Vereiste aanwezigen zijn de project-verantwoordelijke, een vertegenwoordiger uit het projectteam en een kwaliteitsmanager. Andere aanwezigen kunnen zijn: opdrachtnemer, architecten en coaches.
+Vereiste aanwezigen zijn de projectverantwoordelijke, een vertegenwoordiger uit elk van de realiserende teams en de kwaliteitsmanager van het project. Andere aanwezigen kunnen zijn: de projectarchitect en de product owner.
 De agenda voor dit overleg bestaat ten minste uit de volgende onderwerpen:
 - mededelingen - pro-actief informeren over voor het project relevante ontwikkelingen,
 - actie- en besluitenlijst,
@@ -328,7 +328,7 @@
 - kwaliteit en architectuur - bespreking van kwaliteit (bijvoorbeeld naar aanleiding van de self-assessment), architectuur (voor borging van inhoudelijke koers), eventuele afwijkingen en benodigde acties,
 - risico's en aandachtspunten.
 Rationale
-Het doel van het periodiek projectoverleg is alle directe betrokkenen, breder dan het realiserende team, op hetzelfde informatieniveau te brengen en te houden. Directe betrokkenen zijn alle medewerkers die geen onderdeel uitmaken van het realiserende team, maar wel verantwoordelijkheid dragen voor het projectsucces.
+Het doel van het periodiek projectoverleg is alle directe betrokkenen, breder dan de realiserende teams, op hetzelfde informatieniveau te brengen en te houden. Directe betrokkenen zijn alle medewerkers die geen onderdeel uitmaken van de realiserende teams, maar wel verantwoordelijkheid dragen voor het projectsucces.
 ICTU
 Bij periodiek projectoverleg zijn de software delivery manager, de kwaliteitsmanager en de Scrum master vereist.
 </t>
@@ -587,6 +587,7 @@
 Door het bieden van een afgeschermde digitale omgeving zijn de afhankelijkheden en invloeden tussen projecten minimaal en worden beveiligingsrisico's verkleind.
 ICTU
 ICTU ondersteunt dit met Docker en/of virtuele machines en een VLAN (Virtual local area network) per project. Een nieuwe afgeschermde digitale omgeving is binnen een werkweek na aanvraag beschikbaar.
+Bij ICTU beheert het team ITB (ISR technisch beheer) de basisconfiguratie van de afgeschermde digitale omgevingen. Projectteams wijken alleen in overleg met het ITB-team af van de basisconfiguratie. Als bepaalde afwijkingen vaker voorkomen, kan dit leiden tot het maken van aanpassingen aan de basisconfiguratie.
 </t>
         </r>
       </text>
@@ -651,7 +652,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.38, 31-08-2018.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.41, 16-01-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -76,7 +76,8 @@
 In een PIA legt de vragende organisatie vast wat de privacy-gevoeligheid is van de gegevens die in een proces of systeem worden verzameld en verwerkt. Zicht op privacygevoelige gegevens en het (laten) treffen van adequate en afdoende beschermingsmaatregelen is een wettelijke plicht die een organisatie niet aan een andere partij kan verdragen.
 ICTU
 ICTU hanteert de volgende documenten, templates en documentstandaarden voor softwarerealisatieprojecten:
-- De beschrijving van niet-functionele eisen is gebaseerd op ISO (International Organization for Standardization)-25010, de BIR (Baseline Informatiebeveiliging Rijksdienst) en de methode Grip op SSD (Secure software development) van het CIP (Centrum Informatiebeveiliging en Privacybescherming), en bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE (Niet-functionele eisen)-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
+- De beschrijving van niet-functionele eisen is gebaseerd op ISO (International Organization for Standardization)-25010, de Wbni (Wet beveiliging netwerk- en informatiesystemen), de BIR (Baseline Informatiebeveiliging Rijksdienst), de methode Grip op SSD (Secure software development) van het CIP (Centrum Informatiebeveiliging en Privacybescherming), en hoofdstuk 9 van de Europese Standaard EN 301 549; dit staat gelijk aan de de Web Content Accessibility Guidelines (WCAG) versie 2.1, niveau A en AA. De beschrijving bevat een prioritering van de niet-functionele eisen. De beschrijving van niet-functionele eisen is gebaseerd op het ICTU NFE (Niet-functionele eisen)-template. De beschrijving bevat in ieder geval eisen aan toegangsbeveiliging, aan beheerfuncties, aan logging en aan het gewenste gedrag van de software bij uitval van infrastructurele diensten, zoals een log-server;
+- Overheidsorganisaties moeten een toegankelijkheidsverklaring op hun websites plaatsen. Indien gewenst ondersteunt ICTU bij het opstellen van de toegankelijkheidsverklaring;
 - De beschrijving van functionele eisen bestaat uit een geprioriteerde backlog met epics en/of user stories. De beschrijving bevat in ieder geval eisen voor (ondersteuning van) beheerfuncties die door de beoogd beheerder gesteld worden en voor logging, inclusief de (globale) inhoud van te loggen business events (gebeurtenissen op procesniveau) en de daarvoor geldende bewaartermijnen;
 - De ontwerp- en architectuurdocumentatie bestaat uit een PSA (Projectstartarchitectuur), een SAD (Softwarearchitectuurdocument), een IA (Infrastructuurarchitectuur), een GFO (Globaal functioneel ontwerp) bijvoorbeeld in de vorm van use cases, en een prototype en/of interactieontwerp. De architectuurdocumenten moeten expliciet inzichtelijk maken hoe aan de niet-functionele eisen wordt voldaan door uit te werken welke oplossingen en mechanieken gekozen zijn, bijvoorbeeld voor identificatie, authenticatie, autorisatie, concurrency, transactionele verwerking of logging;
 - De testdocumentatie bestaat uit een mastertestplan, gemaakt op basis van een PRA (Productrisicoanalyse). Beveiligingstesten zijn een integraal onderdeel van het mastertestplan en worden als zodanig afgestemd met de opdrachtgever;
@@ -250,10 +251,12 @@
 - kwaliteitscontroles,
 - performancetests (*),
 - beveiligingstests (*),
+- toegankelijkheidstests,
 - installatie van de software,
 - oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever.
 (*) Idealerwijs voert de geautomatiseerde continuous delivery pipeline ook performance tests en beveiligingstests uit. Vanwege de doorlooptijden van tests (met name van duurtesten) en licenties van testtools is dat niet altijd haalbaar. In dat geval vinden de performance tests en beveiligingstests periodiek en zo vaak mogelijk plaats, bij voorkeur dagelijks.
-De projectenorganisatie voorziet in mensen en hulpmiddelen, zodat projecten deze pipeline kunnen toepassen. Projecten zijn verantwoordelijk voor de correcte werking van de pipelin.
+Niet alle testen en controles kunnen altijd geautomatiseerd worden uitgevoerd. Denk aan kwaliteitscontroles op architectuurbeslissingen of het testen van toegankelijkheidseisen. Waar mogelijk wordt wel een groot mogelijk deel van de testen en controles geautomatiseerd en als onderdeel van de pipeline uitgevoerd.
+De projectenorganisatie voorziet in mensen en hulpmiddelen, zodat projecten deze pipeline kunnen toepassen. Projecten zijn verantwoordelijk voor de correcte werking van de pipeline.
 Rationale
 Software incrementeel opleveren (zie [M05: Iteratief en incrementeel ontwikkelproces](#iteratief-en-incrementeel-ontwikkelproces-m05-)) vereist dat de software frequent gebouwd, getest en opgeleverd kan worden. Om dit efficiënt en foutvrij te doen, dient het proces van bouwen, testen en opleveren geautomatiseerd te zijn; een continuous delivery pipeline faciliteert dit.
 ICTU
@@ -262,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="0">
+    <comment ref="B46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="0">
+    <comment ref="B47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="0">
+    <comment ref="B48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -335,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="0">
+    <comment ref="B49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B49" authorId="0">
+    <comment ref="B50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -373,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B51" authorId="0">
+    <comment ref="B52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B52" authorId="0">
+    <comment ref="B53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B53" authorId="0">
+    <comment ref="B54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B54" authorId="0">
+    <comment ref="B55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -471,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B55" authorId="0">
+    <comment ref="B56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,16 +493,16 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Verplichte tools (M16)
+    <comment ref="B57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Verplichte tools (M16)
 De projectenorganisatie stelt het gebruik van de volgende tools voor alle projecten verplicht:
 1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties.
 2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt.
@@ -510,6 +513,7 @@
 7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden.
 8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden.
 9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies.
+10. Een tool dat het testen van toegankelijkheid ondersteunt.
 Rationale
 Projecten hebben een redelijke vrijheid bij het kiezen van tools, maar het gebruik van een aantal is verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van deze kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren. Daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af.
 ICTU
@@ -522,12 +526,12 @@
 6. Kwaliteitssysteem (HQ),
 7. OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),
 8. OWASP Dependency Checker,
-9. Checkmarx.
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B66" authorId="0">
+9. Checkmarx,
+10. Axe.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -553,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B70" authorId="0">
+    <comment ref="B72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -572,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B71" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -592,7 +596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -609,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -650,9 +654,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.2.1-build.41, 16-01-2019.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.0-build.1, 05-04-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -814,10 +818,13 @@
     <t>6. beveiligingstests (*)</t>
   </si>
   <si>
-    <t>7. installatie van de software</t>
-  </si>
-  <si>
-    <t>8. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever</t>
+    <t>7. toegankelijkheidstests</t>
+  </si>
+  <si>
+    <t>8. installatie van de software</t>
+  </si>
+  <si>
+    <t>9. oplevering van het totale product, dus inclusief alle deliverables, in de vorm zoals bruikbaar voor en afgesproken met de opdrachtgever</t>
   </si>
   <si>
     <t>M08</t>
@@ -913,7 +920,10 @@
     <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker,</t>
   </si>
   <si>
-    <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx.</t>
+    <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx,</t>
+  </si>
+  <si>
+    <t>10. Een tool dat het testen van toegankelijkheid ondersteunt. Bij ICTU: Axe.</t>
   </si>
   <si>
     <t>M17</t>
@@ -1380,7 +1390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1774,129 +1784,129 @@
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="5"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="5"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="5"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="5"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6" t="s">
+      <c r="A57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="4"/>
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
@@ -1964,29 +1974,29 @@
       <c r="D65" s="5"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="4"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="5"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
+      <c r="A68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="7"/>
+      <c r="C68" s="4"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4">
@@ -1998,63 +2008,79 @@
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="7"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="4"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C76">
+  <conditionalFormatting sqref="C3:C78">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -2069,7 +2095,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -42,7 +42,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">Op te leveren producten (M01)
-Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
+Projecten zijn gesplitst in een voorbereidingsfase en een realisatiefase (zie [M14: Projecten splitsen in een voorbereidings- en realisatiefase](#projecten-splitsen-in-een-voorbereidings-en-realisatiefase-m14-)); alle fasen kennen specifieke producten. De onderstaande tabel benoemt de producten die een project in die fasen moet realiseren of waarover het project moet kunnen beschikken, indien er andere auteurs zijn (bijvoorbeeld de opdrachtgever). Het project zorgt voor een volledige oplevering van alle genoemde producten, waaronder de producten die niet door het project zelf zijn gemaakt.
 Als tijdens een project bestaande software dient te worden afgebouwd, onderhouden en/of herbouwd, vindt een onderzoek plaats naar de compleetheid en consistentie van de bestaande softwareproducten aan de hand van de onderstaande tabel (inclusief de deliverables in de kolom 'Realisatiefase') en wordt de kwaliteit van de bestaande software-producten getoetst ([M02: Continu voldoen aan kwaliteitsnormen](#continu-voldoen-aan-kwaliteitsnormen-m02-)). Dit onderzoek is onderdeel van de voorbereidingsfase en wordt uitgevoerd door vertegenwoordigers van de projectenorganisatie en medewerkers van het desbetreffende project.
 | Product                | Voorbereidings᠆fase  | Voorbereidings᠆fase met onderzoek  | Realisatie᠆fase |
 |----------------------------------------------------------------------------------------|---|---|---|
@@ -125,7 +125,7 @@
 Rationale
 Het zo snel mogelijk en continu voldoen aan de kwaliteitsnormen beperkt toekomstige hersteltijd. Het dwingt tevens een structurele kwaliteitscontrole af.
 ICTU
-Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidingsfase en een realisatiefase](#projecten-splitsen-in-een-voorbereidingsfase-en-een-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem', genaamd HQ (Holistic Software Quality Reporting). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
+Bij ICTU wordt tijdens de voorfase van softwarerealisatieprojecten (zie ook [M14: Projecten splitsen in een voorbereidings- en realisatiefase](#projecten-splitsen-in-een-voorbereidings-en-realisatiefase-m14-)) het voldoen aan de kwaliteitsnormen met behulp van reviews gecontroleerd. Tijdens de realisatiefase van softwarerealisatieprojecten wordt het voldoen aan de kwaliteitsnormen diverse malen per uur gemeten door het 'Kwaliteitssysteem', genaamd HQ (Holistic Software Quality Reporting). Het project kijkt dagelijks of er afwijkingen van de normen zijn en onderneemt actie indien nodig. Ook de kwaliteitsmanager signaleert afwijkingen en meldt deze bij het project. De ICTU-specifieke invulling van de kwaliteitsnormen is te vinden in het helpmenu van de geautomatiseerde kwaliteitsrapportages van ICTU.
 </t>
         </r>
       </text>
@@ -463,7 +463,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Projecten splitsen in een voorbereidingsfase en een realisatiefase (M14)
+          <t xml:space="preserve">Projecten splitsen in een voorbereidings- en realisatiefase (M14)
 Projecten hebben een voorbereidingsfase, voorafgaand aan de realisatiefase. Voor het uitvoeren van de voorbereidingsfase zijn vertegenwoordigers van de opdrachtgever en beoogde beheerpartij beschikbaar - bij voorkeur dezelfde als betrokken zullen zijn in de realisatiefase - die meewerken aan het realiseren van een deel van de op te leveren producten (zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-)). Tijdens de realisatiefase vindt de bouw en het onderhoud van de software en het finaliseren van documentatie plaats.
 Rationale
 Het doel van de voorbereidingsfase is ten eerste om uitgangspunten, risico's en randvoorwaarden voor verdere projectuitvoering te bepalen en ten tweede om te zorgen dat aan de randvoorwaarden wordt voldaan en voor zoveel mogelijk projectspecifieke risico's maatregelen genomen zijn. Het doel van de realisatiefase is het daadwerkelijk bouwen en onderhouden van de software. Een expliciete splitsing zorgt ervoor dat projecten doordacht van start gaan.
@@ -656,7 +656,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.0-build.1, 05-04-2019.</t>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.1-build.1, 01-05-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -881,7 +881,7 @@
     <t>M14</t>
   </si>
   <si>
-    <t>Projecten splitsen in een voorbereidingsfase en een realisatiefase</t>
+    <t>Projecten splitsen in een voorbereidings- en realisatiefase</t>
   </si>
   <si>
     <t>M15</t>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Self-assessment checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Self-assessment verbeteracties" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -654,9 +655,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.1-build.1, 01-05-2019.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 2.0-build.0, 14-08-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -969,6 +970,15 @@
   </si>
   <si>
     <t>Warme kennisoverdracht</t>
+  </si>
+  <si>
+    <t>Onderstaande actielijst kan gebruikt worden om acties n.a.v. de self-assessment bij te houden.</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Actie</t>
   </si>
 </sst>
 </file>
@@ -2102,4 +2112,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -504,35 +504,37 @@
             <family val="2"/>
           </rPr>
           <t>Verplichte tools (M16)
-De projectenorganisatie stelt het gebruik van de volgende tools voor alle projecten verplicht:
-1. Een tool dat agile werken ondersteunt. Een dergelijk tool voorziet in het opvoeren van eisen, het opvoeren van logische testgevallen en het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties.
-2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt.
-3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt.
-4. Een tool dat het releasen van software ondersteunt.
-5. Een tool dat het maken van testrapportages ondersteunt.
-6. Een tool dat het maken van kwaliteitsrapportages ondersteunt.
-7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden.
-8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden.
-9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies.
-10. Een tool dat het testen van toegankelijkheid ondersteunt.
-Rationale
-Projecten hebben een redelijke vrijheid bij het kiezen van tools, maar het gebruik van een aantal is verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van deze kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren. Daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af.
-ICTU
-ICTU gebruikt hiervoor de volgende tools:
+De projectenorganisatie stelt het gebruik van tools voor de volgende taken verplicht:
+1. agile werken, waaronder het opvoeren van eisen, het opvoeren van logische testgevallen, het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties,
+2. inrichten en uitvoeren van een continuous delivery pipeline,
+3. monitoren van de kwaliteit van broncode,
+4. versiebeheer van op te leveren producten, waaronder broncode, configuratiebestanden en documentatie,
+5. release van software,
+6. maken van testrapportages,
+7. maken van kwaliteitsrapportages,
+8. controleren van de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, op aanwezigheid bekende kwetsbaarheden,
+9. controleren van door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken op aanwezigheid bekende kwetsbaarheden,
+10. controleren van de broncode op aanwezigheid bekende kwetsbare constructies,
+11. testen op toegankelijkheid van de applicatie.
+Rationale
+Projecten hebben een redelijke vrijheid bij het kiezen en gebruiken van tools, maar voor een aantal taken is het gebruik verplicht gesteld. Deze tools zijn nodig voor een efficiënte uitvoering van de kwaliteitsaanpak. Uniform gebruik van deze tools maakt het mogelijk koppeling tussen die tools voor alle projecten te standaardiseren; daarnaast bevordert het de uitwisselbaarheid van medewerkers en neemt het risico op het gebruik van onvolwassen tools af. Tot slot is het gebruik in een aantal gevallen, ten behoeve van informatiebeveiliging bij de overheid, verplicht.
+ICTU
+ICTU ondersteunt hiervoor de volgende tools:
 1. Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,
 2. Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,
 3. SonarQube,
-4. Release Manager,
-5. Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),
-6. Kwaliteitssysteem (HQ),
-7. OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),
-8. OWASP Dependency Checker,
-9. Checkmarx,
-10. Axe.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B68" authorId="0">
+4. GitLab en TFS,
+5. Release Manager,
+6. Reporting (ontwikkeld met behulp van Business Intelligence Reporting Tool, BIRT),
+7. HQ en Quality Time,
+8. OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),
+9. OWASP Dependency Checker,
+10. Checkmarx,
+11. Axe.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B69" authorId="0">
       <text>
         <r>
           <rPr>
@@ -558,7 +560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -597,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -633,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,9 +657,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="108">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 2.0-build.0, 14-08-2019.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.1-build.2, 14-08-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -897,34 +899,37 @@
     <t>Verplichte tools</t>
   </si>
   <si>
-    <t>1. Een tool dat agile werken ondersteunt Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,</t>
-  </si>
-  <si>
-    <t>2. Een tool dat het inrichten en uitvoeren van een continuous delivery pipeline ondersteunt. Bij ICTU: Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,</t>
-  </si>
-  <si>
-    <t>3. Een tool dat het monitoren van de kwaliteit van broncode ondersteunt. Bij ICTU: SonarQube,</t>
-  </si>
-  <si>
-    <t>4. Een tool dat het releasen van software ondersteunt. Bij ICTU: Release Manager,</t>
-  </si>
-  <si>
-    <t>5. Een tool dat het maken van testrapportages ondersteunt. Bij ICTU: Reporting (ontwikkeld met behulp van BIRT (Business Intelligence Reporting Tool)),</t>
-  </si>
-  <si>
-    <t>6. Een tool dat het maken van kwaliteitsrapportages ondersteunt. Bij ICTU: Kwaliteitssysteem (HQ),</t>
-  </si>
-  <si>
-    <t>7. Een tool dat de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, controleert op bekende en veelvoorkomende kwetsbaarheden. Bij ICTU: OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),</t>
-  </si>
-  <si>
-    <t>8. Een tool dat de door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken scant op bekende kwetsbaarheden. Bij ICTU: OWASP Dependency Checker,</t>
-  </si>
-  <si>
-    <t>9. Een tool dat de broncode geautomatiseerd beoordeelt op het voorkomen van bekende kwetsbare constructies. Bij ICTU: Checkmarx,</t>
-  </si>
-  <si>
-    <t>10. Een tool dat het testen van toegankelijkheid ondersteunt. Bij ICTU: Axe.</t>
+    <t>1. agile werken, waaronder het opvoeren van eisen, het opvoeren van logische testgevallen, het koppelen van logische testgevallen aan eisen, het bijhouden van een werkvoorraad, het plannen van iteraties en het toewijzen van eisen aan iteraties, Bij ICTU: Jira - De 'eisen' worden, conform Scrumterminologie, geregistreerd als epics en/of user stories, de werkvoorraad als backlog, de iteraties als sprints,</t>
+  </si>
+  <si>
+    <t>2. inrichten en uitvoeren van een continuous delivery pipeline, Bij ICTU: Jenkins voor Javaprojecten en TFS (Team Foundation Server) voor DotNet-projecten,</t>
+  </si>
+  <si>
+    <t>3. monitoren van de kwaliteit van broncode, Bij ICTU: SonarQube,</t>
+  </si>
+  <si>
+    <t>4. versiebeheer van op te leveren producten, waaronder broncode, configuratiebestanden en documentatie, Bij ICTU: GitLab en TFS,</t>
+  </si>
+  <si>
+    <t>5. release van software, Bij ICTU: Release Manager,</t>
+  </si>
+  <si>
+    <t>6. maken van testrapportages, Bij ICTU: Reporting (ontwikkeld met behulp van Business Intelligence Reporting Tool, BIRT),</t>
+  </si>
+  <si>
+    <t>7. maken van kwaliteitsrapportages, Bij ICTU: HQ en Quality Time,</t>
+  </si>
+  <si>
+    <t>8. controleren van de configuratie van de applicatie en de omgeving, waarbinnen die applicatie draait, op aanwezigheid bekende kwetsbaarheden, Bij ICTU: OpenVAS (Vulnerability Assessment System) en OWASP (Open Web Application Security Project) ZAP (Zed Attack Proxy),</t>
+  </si>
+  <si>
+    <t>9. controleren van door de applicatie gebruikte versies van externe bibliotheken, raamwerken of andersoortige bouwblokken op aanwezigheid bekende kwetsbaarheden, Bij ICTU: OWASP Dependency Checker,</t>
+  </si>
+  <si>
+    <t>10. controleren van de broncode op aanwezigheid bekende kwetsbare constructies, Bij ICTU: Checkmarx,</t>
+  </si>
+  <si>
+    <t>11. testen op toegankelijkheid van de applicatie. Bij ICTU: Axe.</t>
   </si>
   <si>
     <t>M17</t>
@@ -1400,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -2000,21 +2005,21 @@
       <c r="D67" s="5"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="7"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
@@ -2034,54 +2039,62 @@
       <c r="D71" s="5"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="4"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="5"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="5"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2090,7 +2103,7 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A51:D51"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C78">
+  <conditionalFormatting sqref="C3:C79">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -2105,7 +2118,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C79">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2130,7 +2143,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2138,10 +2151,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>

--- a/ICTU-Kwaliteitsaanpak-Checklist.xlsx
+++ b/ICTU-Kwaliteitsaanpak-Checklist.xlsx
@@ -464,6 +464,25 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t xml:space="preserve">Project verantwoord starten (M29)
+Voordat een maatwerksoftwareproject, dat conform de Kwaliteitsaanpak gaat werken, start, toetst de projectenorganisatie of zij beschikt over de benodigde kennis,  diensten en hulpmiddelen om het project te ondersteunen. Zo niet, dan voert de organisatie ofwel het project niet uit, ofwel organiseert zij de benodigde kennis, diensten en hulpmiddelen. De organisatie voert de toets uit aan de hand van een checklist met SMART criteria.
+Rationale
+Om de Kwaliteitsaanpak succesvol in te zetten, is ondersteuning van het project nodig. Het vooraf toetsen of deze ondersteuning in de juiste mate beschikbaar is, voorkomt dat projecten niet of niet goed volgens de Kwaliteitsaanpak kunnen werken.
+ICTU
+Voor het kunnen opstarten van projecten organiseert ICTU een "Doordacht-van-Start-sessie". De toets of de benodigde ondersteuning in de juiste mate beschikbaar is, is onderwerp van de Doordacht-van-Start-sessie. Indien een dergelijke sessie onverhoopt niet is voorzien voor het project, vindt de toetsing op een alternatief moment plaats. In alle gevallen heeft de toets plaatsgevonden voordat de opdrachtgever een definitieve projectovereenkomst ontvangt.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">Projecten splitsen in een voorbereidings- en realisatiefase (M14)
 Projecten hebben een voorbereidingsfase, voorafgaand aan de realisatiefase. Voor het uitvoeren van de voorbereidingsfase zijn vertegenwoordigers van de opdrachtgever en beoogde beheerpartij beschikbaar - bij voorkeur dezelfde als betrokken zullen zijn in de realisatiefase - die meewerken aan het realiseren van een deel van de op te leveren producten (zie [M01: Op te leveren producten](#op-te-leveren-producten-m01-)). Tijdens de realisatiefase vindt de bouw en het onderhoud van de software en het finaliseren van documentatie plaats.
 Rationale
@@ -475,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B56" authorId="0">
+    <comment ref="B57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B57" authorId="0">
+    <comment ref="B58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -534,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B69" authorId="0">
+    <comment ref="B70" authorId="0">
       <text>
         <r>
           <rPr>
@@ -560,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0">
+    <comment ref="B74" authorId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="0">
+    <comment ref="B75" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +618,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -616,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B76" authorId="0">
+    <comment ref="B77" authorId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B77" authorId="0">
+    <comment ref="B78" authorId="0">
       <text>
         <r>
           <rPr>
@@ -657,9 +676,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
-  <si>
-    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.1-build.2, 14-08-2019.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="111">
+  <si>
+    <t>Onderstaande checklist kan gebruikt worden voor het uitvoeren van een assessment tegen de Kwaliteitsaanpak ICTU Software Realisatie versie 1.3.1-build.4, 14-08-2019.</t>
   </si>
   <si>
     <t>Maatregel</t>
@@ -879,6 +898,12 @@
   </si>
   <si>
     <t>Publicatie kwaliteitsaanpak en -normen</t>
+  </si>
+  <si>
+    <t>M29</t>
+  </si>
+  <si>
+    <t>Project verantwoord starten</t>
   </si>
   <si>
     <t>M14</t>
@@ -1405,7 +1430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1925,17 +1950,19 @@
       <c r="D57" s="5"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6" t="s">
+      <c r="A58" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="7"/>
+      <c r="B58" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6"/>
       <c r="B59" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="5"/>
@@ -1943,7 +1970,7 @@
     <row r="60" spans="1:4">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="5"/>
@@ -1951,7 +1978,7 @@
     <row r="61" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="5"/>
@@ -1959,7 +1986,7 @@
     <row r="62" spans="1:4">
       <c r="A62" s="6"/>
       <c r="B62" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="5"/>
@@ -1967,7 +1994,7 @@
     <row r="63" spans="1:4">
       <c r="A63" s="6"/>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="5"/>
@@ -1975,7 +2002,7 @@
     <row r="64" spans="1:4">
       <c r="A64" s="6"/>
       <c r="B64" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="5"/>
@@ -1983,7 +2010,7 @@
     <row r="65" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="5"/>
@@ -1991,7 +2018,7 @@
     <row r="66" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="5"/>
@@ -1999,7 +2026,7 @@
     <row r="67" spans="1:4">
       <c r="A67" s="6"/>
       <c r="B67" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="5"/>
@@ -2007,33 +2034,33 @@
     <row r="68" spans="1:4">
       <c r="A68" s="6"/>
       <c r="B68" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="5"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="5"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+      <c r="A70" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="B70" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="5"/>
@@ -2041,19 +2068,17 @@
     <row r="72" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="4"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="5"/>
     </row>
     <row r="74" spans="1:4">
@@ -2095,6 +2120,16 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2103,7 +2138,7 @@
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A51:D51"/>
   </mergeCells>
-  <conditionalFormatting sqref="C3:C79">
+  <conditionalFormatting sqref="C3:C80">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"voldoet"</formula>
     </cfRule>
@@ -2118,7 +2153,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C79">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C80">
       <formula1>"voldoet,voldoet deels,voldoet niet,niet van toepassing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2143,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2151,10 +2186,10 @@
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
